--- a/JupyterNotebooks/AvgHW/AlphaFiberF-HW10.xlsx
+++ b/JupyterNotebooks/AvgHW/AlphaFiberF-HW10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,18 +82,21 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
     <t>[2, 2, 2]</t>
   </si>
   <si>
@@ -89,9 +104,6 @@
   </si>
   <si>
     <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +491,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +555,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +564,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -674,28 +626,28 @@
         <v>1</v>
       </c>
       <c r="C3">
+        <v>0.9951878957092909</v>
+      </c>
+      <c r="D3">
+        <v>0.9993041966129168</v>
+      </c>
+      <c r="E3">
         <v>1.025144789947068</v>
       </c>
-      <c r="D3">
-        <v>0.9993041966129167</v>
-      </c>
-      <c r="E3">
-        <v>0.9951878957092909</v>
-      </c>
       <c r="F3">
+        <v>0.9993041966129168</v>
+      </c>
+      <c r="G3">
         <v>1.025144789947068</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>0.9836838572145354</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>1.000447423893858</v>
       </c>
-      <c r="I3">
-        <v>0.9973346660181277</v>
-      </c>
       <c r="J3">
-        <v>0.9993041966129167</v>
+        <v>0.9973346660181278</v>
       </c>
       <c r="K3">
         <v>1.025144789947068</v>
@@ -704,13 +656,13 @@
         <v>0.9951878957092909</v>
       </c>
       <c r="M3">
-        <v>0.9972460461611038</v>
+        <v>0.9972460461611039</v>
       </c>
       <c r="N3">
-        <v>0.9972460461611038</v>
+        <v>0.9972460461611039</v>
       </c>
       <c r="O3">
-        <v>0.9983131720720216</v>
+        <v>0.9983131720720219</v>
       </c>
       <c r="P3">
         <v>1.006545627423092</v>
@@ -728,7 +680,7 @@
         <v>1.000183804899299</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -736,28 +688,28 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.049340798865434</v>
+        <v>0.9896331371669096</v>
       </c>
       <c r="D4">
         <v>0.9976974056591632</v>
       </c>
       <c r="E4">
-        <v>0.9896331371669096</v>
+        <v>1.049340798865434</v>
       </c>
       <c r="F4">
+        <v>0.9976974056591632</v>
+      </c>
+      <c r="G4">
         <v>1.049340798865434</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>0.9684263341830096</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>1.00073550742747</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>0.9952914626482522</v>
-      </c>
-      <c r="J4">
-        <v>0.9976974056591632</v>
       </c>
       <c r="K4">
         <v>1.049340798865434</v>
@@ -790,7 +742,7 @@
         <v>1.000187440991706</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -798,28 +750,28 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.095987374224819</v>
+        <v>0.9819855445115087</v>
       </c>
       <c r="D5">
         <v>0.9997422610411486</v>
       </c>
       <c r="E5">
-        <v>0.9819855445115087</v>
+        <v>1.095987374224819</v>
       </c>
       <c r="F5">
+        <v>0.9997422610411486</v>
+      </c>
+      <c r="G5">
         <v>1.095987374224819</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>0.9446771174439034</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>1.002716086493868</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>0.9922935145957116</v>
-      </c>
-      <c r="J5">
-        <v>0.9997422610411486</v>
       </c>
       <c r="K5">
         <v>1.095987374224819</v>
@@ -852,7 +804,7 @@
         <v>1.00290031638516</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -860,28 +812,28 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.156346822551598</v>
+        <v>0.9994216394135198</v>
       </c>
       <c r="D6">
         <v>1.015167821135583</v>
       </c>
       <c r="E6">
-        <v>0.9994216394135198</v>
+        <v>1.156346822551598</v>
       </c>
       <c r="F6">
+        <v>1.015167821135583</v>
+      </c>
+      <c r="G6">
         <v>1.156346822551598</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>0.9205057964863077</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>1.009150855697621</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>0.9768733072209441</v>
-      </c>
-      <c r="J6">
-        <v>1.015167821135583</v>
       </c>
       <c r="K6">
         <v>1.156346822551598</v>
@@ -914,7 +866,7 @@
         <v>1.012911040417596</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,40 +874,40 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.999909611159113</v>
+        <v>1.00041337334096</v>
       </c>
       <c r="D7">
-        <v>1.001964744058553</v>
+        <v>1.001964744058554</v>
       </c>
       <c r="E7">
-        <v>1.000413373340959</v>
+        <v>0.9999096111591124</v>
       </c>
       <c r="F7">
-        <v>0.999909611159113</v>
+        <v>1.001964744058554</v>
       </c>
       <c r="G7">
+        <v>0.9999096111591124</v>
+      </c>
+      <c r="H7">
         <v>1.001764394695247</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>0.9996428419171198</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>0.9996222708504067</v>
       </c>
-      <c r="J7">
-        <v>1.001964744058553</v>
-      </c>
       <c r="K7">
-        <v>0.999909611159113</v>
+        <v>0.9999096111591124</v>
       </c>
       <c r="L7">
-        <v>1.000413373340959</v>
+        <v>1.00041337334096</v>
       </c>
       <c r="M7">
-        <v>1.001189058699756</v>
+        <v>1.001189058699757</v>
       </c>
       <c r="N7">
-        <v>1.001189058699756</v>
+        <v>1.001189058699757</v>
       </c>
       <c r="O7">
         <v>1.000673653105544</v>
@@ -964,7 +916,7 @@
         <v>1.000762576186209</v>
       </c>
       <c r="Q7">
-        <v>1.000762576186208</v>
+        <v>1.000762576186209</v>
       </c>
       <c r="R7">
         <v>1.000549334929435</v>
@@ -976,7 +928,7 @@
         <v>1.000552872670233</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -984,40 +936,40 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.001599753898461</v>
+        <v>1.000736091982743</v>
       </c>
       <c r="D8">
-        <v>1.003752402361495</v>
+        <v>1.003752402361496</v>
       </c>
       <c r="E8">
-        <v>1.000736091982744</v>
+        <v>1.00159975389846</v>
       </c>
       <c r="F8">
-        <v>1.001599753898461</v>
+        <v>1.003752402361496</v>
       </c>
       <c r="G8">
+        <v>1.00159975389846</v>
+      </c>
+      <c r="H8">
         <v>1.003999889073205</v>
       </c>
-      <c r="H8">
-        <v>0.9990331854734175</v>
-      </c>
       <c r="I8">
+        <v>0.999033185473417</v>
+      </c>
+      <c r="J8">
         <v>0.9990214260114924</v>
       </c>
-      <c r="J8">
-        <v>1.003752402361495</v>
-      </c>
       <c r="K8">
-        <v>1.001599753898461</v>
+        <v>1.00159975389846</v>
       </c>
       <c r="L8">
-        <v>1.000736091982744</v>
+        <v>1.000736091982743</v>
       </c>
       <c r="M8">
-        <v>1.002244247172119</v>
+        <v>1.00224424717212</v>
       </c>
       <c r="N8">
-        <v>1.002244247172119</v>
+        <v>1.00224424717212</v>
       </c>
       <c r="O8">
         <v>1.001173893272552</v>
@@ -1038,7 +990,7 @@
         <v>1.001357124800136</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1046,28 +998,28 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.005422243409984</v>
+        <v>1.000241581506902</v>
       </c>
       <c r="D9">
         <v>1.004443164042033</v>
       </c>
       <c r="E9">
-        <v>1.000241581506902</v>
+        <v>1.005422243409984</v>
       </c>
       <c r="F9">
+        <v>1.004443164042033</v>
+      </c>
+      <c r="G9">
         <v>1.005422243409984</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>1.003644768235944</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>0.9985767206637098</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>0.998626064786322</v>
-      </c>
-      <c r="J9">
-        <v>1.004443164042033</v>
       </c>
       <c r="K9">
         <v>1.005422243409984</v>
@@ -1091,16 +1043,16 @@
         <v>1.003368996319639</v>
       </c>
       <c r="R9">
-        <v>1.003882308092225</v>
+        <v>1.003882308092226</v>
       </c>
       <c r="S9">
-        <v>1.003882308092225</v>
+        <v>1.003882308092226</v>
       </c>
       <c r="T9">
         <v>1.001825757107482</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1108,28 +1060,28 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.007755921168244</v>
+        <v>1.0014551184254</v>
       </c>
       <c r="D10">
         <v>1.010662248990591</v>
       </c>
       <c r="E10">
-        <v>1.0014551184254</v>
+        <v>1.007755921168244</v>
       </c>
       <c r="F10">
+        <v>1.010662248990591</v>
+      </c>
+      <c r="G10">
         <v>1.007755921168244</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>1.010666914911563</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>0.9969642054895369</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>0.9970236676244635</v>
-      </c>
-      <c r="J10">
-        <v>1.010662248990591</v>
       </c>
       <c r="K10">
         <v>1.007755921168244</v>
@@ -1162,7 +1114,7 @@
         <v>1.0040880127683</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1170,28 +1122,28 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.023786138663091</v>
+        <v>0.9994498954210648</v>
       </c>
       <c r="D11">
         <v>1.013413964427211</v>
       </c>
       <c r="E11">
-        <v>0.9994498954210648</v>
+        <v>1.023786138663091</v>
       </c>
       <c r="F11">
+        <v>1.013413964427211</v>
+      </c>
+      <c r="G11">
         <v>1.023786138663091</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>1.012179255866814</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>0.9955104353890499</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>0.9949875146238187</v>
-      </c>
-      <c r="J11">
-        <v>1.013413964427211</v>
       </c>
       <c r="K11">
         <v>1.023786138663091</v>
@@ -1224,7 +1176,7 @@
         <v>1.006554534065175</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1232,28 +1184,28 @@
         <v>10</v>
       </c>
       <c r="C12">
+        <v>0.9058000676625266</v>
+      </c>
+      <c r="D12">
+        <v>0.5242975229237483</v>
+      </c>
+      <c r="E12">
         <v>1.367451572519013</v>
       </c>
-      <c r="D12">
-        <v>0.5242975229237484</v>
-      </c>
-      <c r="E12">
-        <v>0.9058000676625266</v>
-      </c>
       <c r="F12">
+        <v>0.5242975229237483</v>
+      </c>
+      <c r="G12">
         <v>1.367451572519013</v>
       </c>
-      <c r="G12">
-        <v>0.2955190547006419</v>
-      </c>
       <c r="H12">
+        <v>0.2955190547006418</v>
+      </c>
+      <c r="I12">
         <v>1.10415844838367</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>1.047797231911656</v>
-      </c>
-      <c r="J12">
-        <v>0.5242975229237484</v>
       </c>
       <c r="K12">
         <v>1.367451572519013</v>
@@ -1271,10 +1223,10 @@
         <v>0.8447520129899818</v>
       </c>
       <c r="P12">
-        <v>0.9325163877017625</v>
+        <v>0.9325163877017628</v>
       </c>
       <c r="Q12">
-        <v>0.9325163877017625</v>
+        <v>0.9325163877017628</v>
       </c>
       <c r="R12">
         <v>1.041250183906075</v>
@@ -1283,10 +1235,10 @@
         <v>1.041250183906075</v>
       </c>
       <c r="T12">
-        <v>0.8741706496835427</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30">
+        <v>0.8741706496835429</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1294,31 +1246,31 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9135524736007584</v>
+        <v>0.9559112217430918</v>
       </c>
       <c r="D13">
         <v>1.465386549296405</v>
       </c>
       <c r="E13">
-        <v>0.9559112217430918</v>
+        <v>0.9135524736007585</v>
       </c>
       <c r="F13">
-        <v>0.9135524736007584</v>
+        <v>1.465386549296405</v>
       </c>
       <c r="G13">
+        <v>0.9135524736007585</v>
+      </c>
+      <c r="H13">
         <v>1.291586212764821</v>
       </c>
-      <c r="H13">
-        <v>0.9487592721989305</v>
-      </c>
       <c r="I13">
+        <v>0.9487592721989307</v>
+      </c>
+      <c r="J13">
         <v>0.9498782134979767</v>
       </c>
-      <c r="J13">
-        <v>1.465386549296405</v>
-      </c>
       <c r="K13">
-        <v>0.9135524736007584</v>
+        <v>0.9135524736007585</v>
       </c>
       <c r="L13">
         <v>0.9559112217430918</v>
@@ -1330,25 +1282,25 @@
         <v>1.210648885519749</v>
       </c>
       <c r="O13">
-        <v>1.123352347746142</v>
+        <v>1.123352347746143</v>
       </c>
       <c r="P13">
-        <v>1.111616748213418</v>
+        <v>1.111616748213419</v>
       </c>
       <c r="Q13">
-        <v>1.111616748213418</v>
+        <v>1.111616748213419</v>
       </c>
       <c r="R13">
-        <v>1.062100679560253</v>
+        <v>1.062100679560254</v>
       </c>
       <c r="S13">
-        <v>1.062100679560253</v>
+        <v>1.062100679560254</v>
       </c>
       <c r="T13">
         <v>1.087512323850331</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1356,28 +1308,28 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.6255072321765257</v>
+        <v>0.9742458777296152</v>
       </c>
       <c r="D14">
         <v>1.737560417288984</v>
       </c>
       <c r="E14">
-        <v>0.9742458777296152</v>
+        <v>0.6255072321765257</v>
       </c>
       <c r="F14">
+        <v>1.737560417288984</v>
+      </c>
+      <c r="G14">
         <v>0.6255072321765257</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>1.314279643418631</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>1.148330836567969</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>0.9081754660064649</v>
-      </c>
-      <c r="J14">
-        <v>1.737560417288984</v>
       </c>
       <c r="K14">
         <v>0.6255072321765257</v>
@@ -1410,7 +1362,7 @@
         <v>1.118016578864698</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1418,31 +1370,31 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9784058692234199</v>
+        <v>1.016310253986152</v>
       </c>
       <c r="D15">
         <v>0.6323739763359562</v>
       </c>
       <c r="E15">
-        <v>1.016310253986152</v>
+        <v>0.97840586922342</v>
       </c>
       <c r="F15">
-        <v>0.9784058692234199</v>
+        <v>0.6323739763359562</v>
       </c>
       <c r="G15">
+        <v>0.97840586922342</v>
+      </c>
+      <c r="H15">
         <v>0.7473766971540057</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>1.070986411344868</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>1.00175823847852</v>
       </c>
-      <c r="J15">
-        <v>0.6323739763359562</v>
-      </c>
       <c r="K15">
-        <v>0.9784058692234199</v>
+        <v>0.97840586922342</v>
       </c>
       <c r="L15">
         <v>1.016310253986152</v>
@@ -1457,22 +1409,22 @@
         <v>0.9065568805556588</v>
       </c>
       <c r="P15">
-        <v>0.8756966998485094</v>
+        <v>0.8756966998485095</v>
       </c>
       <c r="Q15">
-        <v>0.8756966998485094</v>
+        <v>0.8756966998485095</v>
       </c>
       <c r="R15">
-        <v>0.901373992192237</v>
+        <v>0.9013739921922371</v>
       </c>
       <c r="S15">
-        <v>0.901373992192237</v>
+        <v>0.9013739921922371</v>
       </c>
       <c r="T15">
         <v>0.9078685744204869</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1432,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9934552935279907</v>
+        <v>0.9090269504671833</v>
       </c>
       <c r="D16">
-        <v>1.000547447310705</v>
+        <v>1.003260044362084</v>
       </c>
       <c r="E16">
-        <v>1.003054716196678</v>
+        <v>1.412039083785934</v>
       </c>
       <c r="F16">
-        <v>0.9934552935279907</v>
+        <v>1.003260044362084</v>
       </c>
       <c r="G16">
-        <v>1.005218716694018</v>
+        <v>1.412039083785934</v>
       </c>
       <c r="H16">
-        <v>1.000014457200248</v>
+        <v>0.7055446589074096</v>
       </c>
       <c r="I16">
-        <v>0.999896377451046</v>
+        <v>1.017569624230751</v>
       </c>
       <c r="J16">
-        <v>1.000547447310705</v>
+        <v>0.9593735847823748</v>
       </c>
       <c r="K16">
-        <v>0.9934552935279907</v>
+        <v>1.412039083785934</v>
       </c>
       <c r="L16">
-        <v>1.003054716196678</v>
+        <v>0.9090269504671833</v>
       </c>
       <c r="M16">
-        <v>1.001801081753691</v>
+        <v>0.9561434974146337</v>
       </c>
       <c r="N16">
-        <v>1.001801081753691</v>
+        <v>0.9561434974146337</v>
       </c>
       <c r="O16">
-        <v>1.001205540235877</v>
+        <v>0.9766188730200062</v>
       </c>
       <c r="P16">
-        <v>0.9990191523451245</v>
+        <v>1.108108692871734</v>
       </c>
       <c r="Q16">
-        <v>0.9990191523451246</v>
+        <v>1.108108692871734</v>
       </c>
       <c r="R16">
-        <v>0.9976281876408412</v>
+        <v>1.184091290600284</v>
       </c>
       <c r="S16">
-        <v>0.9976281876408412</v>
+        <v>1.184091290600284</v>
       </c>
       <c r="T16">
-        <v>1.000364501396781</v>
+        <v>1.001135657755956</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1494,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.008366134383959</v>
+        <v>0.9528361611472602</v>
       </c>
       <c r="D17">
-        <v>1.001563704069303</v>
+        <v>1.061178117595809</v>
       </c>
       <c r="E17">
-        <v>0.9963540467058953</v>
+        <v>1.237393226341469</v>
       </c>
       <c r="F17">
-        <v>1.008366134383959</v>
+        <v>1.061178117595809</v>
       </c>
       <c r="G17">
-        <v>0.9957487340508334</v>
+        <v>1.237393226341469</v>
       </c>
       <c r="H17">
-        <v>0.9994552097983418</v>
+        <v>0.852760247639252</v>
       </c>
       <c r="I17">
-        <v>0.9995709910448529</v>
+        <v>1.013167669915372</v>
       </c>
       <c r="J17">
-        <v>1.001563704069303</v>
+        <v>0.9636308759124764</v>
       </c>
       <c r="K17">
-        <v>1.008366134383959</v>
+        <v>1.237393226341469</v>
       </c>
       <c r="L17">
-        <v>0.9963540467058953</v>
+        <v>0.9528361611472602</v>
       </c>
       <c r="M17">
-        <v>0.9989588753875991</v>
+        <v>1.007007139371535</v>
       </c>
       <c r="N17">
-        <v>0.9989588753875991</v>
+        <v>1.007007139371535</v>
       </c>
       <c r="O17">
-        <v>0.99912432019118</v>
+        <v>1.009060649552813</v>
       </c>
       <c r="P17">
-        <v>1.002094628386386</v>
+        <v>1.083802501694846</v>
       </c>
       <c r="Q17">
-        <v>1.002094628386386</v>
+        <v>1.083802501694846</v>
       </c>
       <c r="R17">
-        <v>1.003662504885779</v>
+        <v>1.122200182856501</v>
       </c>
       <c r="S17">
-        <v>1.003662504885779</v>
+        <v>1.122200182856501</v>
       </c>
       <c r="T17">
-        <v>1.000176470008864</v>
+        <v>1.013494383091939</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1556,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.003791802394072</v>
+        <v>1.038881895556477</v>
       </c>
       <c r="D18">
-        <v>0.9938723881077173</v>
+        <v>1.173449173555999</v>
       </c>
       <c r="E18">
-        <v>1.004935907958623</v>
+        <v>0.8943679930788919</v>
       </c>
       <c r="F18">
-        <v>1.003791802394072</v>
+        <v>1.173449173555999</v>
       </c>
       <c r="G18">
-        <v>1.009178850053639</v>
+        <v>0.8943679930788919</v>
       </c>
       <c r="H18">
-        <v>0.9994038467739389</v>
+        <v>1.143282015938244</v>
       </c>
       <c r="I18">
-        <v>0.9977174400839749</v>
+        <v>1.004136803828313</v>
       </c>
       <c r="J18">
-        <v>0.9938723881077173</v>
+        <v>0.9722756318678779</v>
       </c>
       <c r="K18">
-        <v>1.003791802394072</v>
+        <v>0.8943679930788919</v>
       </c>
       <c r="L18">
-        <v>1.004935907958623</v>
+        <v>1.038881895556477</v>
       </c>
       <c r="M18">
-        <v>0.9994041480331703</v>
+        <v>1.106165534556238</v>
       </c>
       <c r="N18">
-        <v>0.9994041480331703</v>
+        <v>1.106165534556238</v>
       </c>
       <c r="O18">
-        <v>0.9994040476134266</v>
+        <v>1.07215595764693</v>
       </c>
       <c r="P18">
-        <v>1.000866699486804</v>
+        <v>1.035566354063789</v>
       </c>
       <c r="Q18">
-        <v>1.000866699486804</v>
+        <v>1.035566354063789</v>
       </c>
       <c r="R18">
-        <v>1.001597975213621</v>
+        <v>1.000266763817565</v>
       </c>
       <c r="S18">
-        <v>1.001597975213621</v>
+        <v>1.000266763817565</v>
       </c>
       <c r="T18">
-        <v>1.001483372561994</v>
+        <v>1.0377322523043</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,58 +1618,306 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>1.060055515148158</v>
+      </c>
+      <c r="D19">
+        <v>1.238894755146833</v>
+      </c>
+      <c r="E19">
+        <v>0.8409583458274509</v>
+      </c>
+      <c r="F19">
+        <v>1.238894755146833</v>
+      </c>
+      <c r="G19">
+        <v>0.8409583458274509</v>
+      </c>
+      <c r="H19">
+        <v>1.224218702463185</v>
+      </c>
+      <c r="I19">
+        <v>0.9957690713245142</v>
+      </c>
+      <c r="J19">
+        <v>0.9649188822764647</v>
+      </c>
+      <c r="K19">
+        <v>0.8409583458274509</v>
+      </c>
+      <c r="L19">
+        <v>1.060055515148158</v>
+      </c>
+      <c r="M19">
+        <v>1.149475135147495</v>
+      </c>
+      <c r="N19">
+        <v>1.149475135147495</v>
+      </c>
+      <c r="O19">
+        <v>1.098239780539835</v>
+      </c>
+      <c r="P19">
+        <v>1.046636205374147</v>
+      </c>
+      <c r="Q19">
+        <v>1.046636205374147</v>
+      </c>
+      <c r="R19">
+        <v>0.995216740487473</v>
+      </c>
+      <c r="S19">
+        <v>0.995216740487473</v>
+      </c>
+      <c r="T19">
+        <v>1.054135878697767</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.003054716196678</v>
+      </c>
+      <c r="D20">
+        <v>1.000547447310705</v>
+      </c>
+      <c r="E20">
+        <v>0.993455293527991</v>
+      </c>
+      <c r="F20">
+        <v>1.000547447310705</v>
+      </c>
+      <c r="G20">
+        <v>0.993455293527991</v>
+      </c>
+      <c r="H20">
+        <v>1.00521871669402</v>
+      </c>
+      <c r="I20">
+        <v>1.000014457200248</v>
+      </c>
+      <c r="J20">
+        <v>0.9998963774510461</v>
+      </c>
+      <c r="K20">
+        <v>0.993455293527991</v>
+      </c>
+      <c r="L20">
+        <v>1.003054716196678</v>
+      </c>
+      <c r="M20">
+        <v>1.001801081753692</v>
+      </c>
+      <c r="N20">
+        <v>1.001801081753692</v>
+      </c>
+      <c r="O20">
+        <v>1.001205540235877</v>
+      </c>
+      <c r="P20">
+        <v>0.999019152345125</v>
+      </c>
+      <c r="Q20">
+        <v>0.9990191523451247</v>
+      </c>
+      <c r="R20">
+        <v>0.9976281876408413</v>
+      </c>
+      <c r="S20">
+        <v>0.9976281876408413</v>
+      </c>
+      <c r="T20">
+        <v>1.000364501396781</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9963540467058953</v>
+      </c>
+      <c r="D21">
+        <v>1.001563704069303</v>
+      </c>
+      <c r="E21">
+        <v>1.008366134383959</v>
+      </c>
+      <c r="F21">
+        <v>1.001563704069303</v>
+      </c>
+      <c r="G21">
+        <v>1.008366134383959</v>
+      </c>
+      <c r="H21">
+        <v>0.9957487340508335</v>
+      </c>
+      <c r="I21">
+        <v>0.9994552097983425</v>
+      </c>
+      <c r="J21">
+        <v>0.9995709910448528</v>
+      </c>
+      <c r="K21">
+        <v>1.008366134383959</v>
+      </c>
+      <c r="L21">
+        <v>0.9963540467058953</v>
+      </c>
+      <c r="M21">
+        <v>0.9989588753875992</v>
+      </c>
+      <c r="N21">
+        <v>0.9989588753875992</v>
+      </c>
+      <c r="O21">
+        <v>0.9991243201911804</v>
+      </c>
+      <c r="P21">
+        <v>1.002094628386386</v>
+      </c>
+      <c r="Q21">
+        <v>1.002094628386386</v>
+      </c>
+      <c r="R21">
+        <v>1.003662504885779</v>
+      </c>
+      <c r="S21">
+        <v>1.003662504885779</v>
+      </c>
+      <c r="T21">
+        <v>1.000176470008864</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.004935907958623</v>
+      </c>
+      <c r="D22">
+        <v>0.9938723881077177</v>
+      </c>
+      <c r="E22">
+        <v>1.003791802394072</v>
+      </c>
+      <c r="F22">
+        <v>0.9938723881077177</v>
+      </c>
+      <c r="G22">
+        <v>1.003791802394072</v>
+      </c>
+      <c r="H22">
+        <v>1.009178850053638</v>
+      </c>
+      <c r="I22">
+        <v>0.9994038467739389</v>
+      </c>
+      <c r="J22">
+        <v>0.9977174400839748</v>
+      </c>
+      <c r="K22">
+        <v>1.003791802394072</v>
+      </c>
+      <c r="L22">
+        <v>1.004935907958623</v>
+      </c>
+      <c r="M22">
+        <v>0.9994041480331703</v>
+      </c>
+      <c r="N22">
+        <v>0.9994041480331703</v>
+      </c>
+      <c r="O22">
+        <v>0.9994040476134266</v>
+      </c>
+      <c r="P22">
+        <v>1.000866699486805</v>
+      </c>
+      <c r="Q22">
+        <v>1.000866699486805</v>
+      </c>
+      <c r="R22">
+        <v>1.001597975213621</v>
+      </c>
+      <c r="S22">
+        <v>1.001597975213621</v>
+      </c>
+      <c r="T22">
+        <v>1.001483372561994</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>1.022626762243706</v>
+      </c>
+      <c r="D23">
+        <v>0.9971050077671598</v>
+      </c>
+      <c r="E23">
         <v>0.9495585098975111</v>
       </c>
-      <c r="D19">
+      <c r="F23">
         <v>0.9971050077671598</v>
       </c>
-      <c r="E19">
+      <c r="G23">
+        <v>0.9495585098975111</v>
+      </c>
+      <c r="H23">
+        <v>1.023269698706081</v>
+      </c>
+      <c r="I23">
+        <v>1.001910314625178</v>
+      </c>
+      <c r="J23">
+        <v>1.004488788656324</v>
+      </c>
+      <c r="K23">
+        <v>0.9495585098975111</v>
+      </c>
+      <c r="L23">
         <v>1.022626762243706</v>
       </c>
-      <c r="F19">
-        <v>0.9495585098975111</v>
-      </c>
-      <c r="G19">
-        <v>1.023269698706081</v>
-      </c>
-      <c r="H19">
-        <v>1.001910314625178</v>
-      </c>
-      <c r="I19">
-        <v>1.004488788656324</v>
-      </c>
-      <c r="J19">
-        <v>0.9971050077671598</v>
-      </c>
-      <c r="K19">
-        <v>0.9495585098975111</v>
-      </c>
-      <c r="L19">
-        <v>1.022626762243706</v>
-      </c>
-      <c r="M19">
+      <c r="M23">
         <v>1.009865885005433</v>
       </c>
-      <c r="N19">
+      <c r="N23">
         <v>1.009865885005433</v>
       </c>
-      <c r="O19">
+      <c r="O23">
         <v>1.007214028212015</v>
       </c>
-      <c r="P19">
+      <c r="P23">
         <v>0.9897634266361256</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>0.9897634266361256</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>0.979712197451472</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>0.979712197451472</v>
       </c>
-      <c r="T19">
-        <v>0.9998265136493268</v>
+      <c r="T23">
+        <v>0.9998265136493267</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/AlphaFiberF-HW10.xlsx
+++ b/JupyterNotebooks/AvgHW/AlphaFiberF-HW10.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[2, 1, 1]</t>
@@ -491,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,58 +621,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,58 +683,58 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9951878957092909</v>
+        <v>1.050230368360231</v>
       </c>
       <c r="D3">
-        <v>0.9993041966129168</v>
+        <v>1.207067306072318</v>
       </c>
       <c r="E3">
-        <v>1.025144789947068</v>
+        <v>0.8894085226217588</v>
       </c>
       <c r="F3">
-        <v>0.9993041966129168</v>
+        <v>1.207067306072318</v>
       </c>
       <c r="G3">
-        <v>1.025144789947068</v>
+        <v>0.8894085226217588</v>
       </c>
       <c r="H3">
-        <v>0.9836838572145354</v>
+        <v>1.176062099459868</v>
       </c>
       <c r="I3">
-        <v>1.000447423893858</v>
+        <v>0.9935203840100914</v>
       </c>
       <c r="J3">
-        <v>0.9973346660181278</v>
+        <v>0.967996282046111</v>
       </c>
       <c r="K3">
-        <v>1.025144789947068</v>
+        <v>0.8894085226217588</v>
       </c>
       <c r="L3">
-        <v>0.9951878957092909</v>
+        <v>1.050230368360231</v>
       </c>
       <c r="M3">
-        <v>0.9972460461611039</v>
+        <v>1.128648837216275</v>
       </c>
       <c r="N3">
-        <v>0.9972460461611039</v>
+        <v>1.128648837216275</v>
       </c>
       <c r="O3">
-        <v>0.9983131720720219</v>
+        <v>1.08360601948088</v>
       </c>
       <c r="P3">
-        <v>1.006545627423092</v>
+        <v>1.048902065684769</v>
       </c>
       <c r="Q3">
-        <v>1.006545627423092</v>
+        <v>1.048902065684769</v>
       </c>
       <c r="R3">
-        <v>1.011195418054086</v>
+        <v>1.009028679919017</v>
       </c>
       <c r="S3">
-        <v>1.011195418054086</v>
+        <v>1.009028679919017</v>
       </c>
       <c r="T3">
-        <v>1.000183804899299</v>
+        <v>1.047380827095063</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -688,58 +745,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9896331371669096</v>
+        <v>1.045504493122911</v>
       </c>
       <c r="D4">
-        <v>0.9976974056591632</v>
+        <v>1.190488003704545</v>
       </c>
       <c r="E4">
-        <v>1.049340798865434</v>
+        <v>0.8852866114828541</v>
       </c>
       <c r="F4">
-        <v>0.9976974056591632</v>
+        <v>1.190488003704545</v>
       </c>
       <c r="G4">
-        <v>1.049340798865434</v>
+        <v>0.8852866114828541</v>
       </c>
       <c r="H4">
-        <v>0.9684263341830096</v>
+        <v>1.160933663320659</v>
       </c>
       <c r="I4">
-        <v>1.00073550742747</v>
+        <v>0.9996135394968313</v>
       </c>
       <c r="J4">
-        <v>0.9952914626482522</v>
+        <v>0.9707015704835991</v>
       </c>
       <c r="K4">
-        <v>1.049340798865434</v>
+        <v>0.8852866114828541</v>
       </c>
       <c r="L4">
-        <v>0.9896331371669096</v>
+        <v>1.045504493122911</v>
       </c>
       <c r="M4">
-        <v>0.9936652714130364</v>
+        <v>1.117996248413728</v>
       </c>
       <c r="N4">
-        <v>0.9936652714130364</v>
+        <v>1.117996248413728</v>
       </c>
       <c r="O4">
-        <v>0.9960220167511812</v>
+        <v>1.078535345441429</v>
       </c>
       <c r="P4">
-        <v>1.012223780563836</v>
+        <v>1.04042636943677</v>
       </c>
       <c r="Q4">
-        <v>1.012223780563835</v>
+        <v>1.04042636943677</v>
       </c>
       <c r="R4">
-        <v>1.021503035139235</v>
+        <v>1.001641429948291</v>
       </c>
       <c r="S4">
-        <v>1.021503035139235</v>
+        <v>1.001641429948291</v>
       </c>
       <c r="T4">
-        <v>1.000187440991706</v>
+        <v>1.042087980268567</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -750,58 +807,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9819855445115087</v>
+        <v>1.05902392423989</v>
       </c>
       <c r="D5">
-        <v>0.9997422610411486</v>
+        <v>1.239200088849733</v>
       </c>
       <c r="E5">
-        <v>1.095987374224819</v>
+        <v>0.8989498228948798</v>
       </c>
       <c r="F5">
-        <v>0.9997422610411486</v>
+        <v>1.239200088849733</v>
       </c>
       <c r="G5">
-        <v>1.095987374224819</v>
+        <v>0.8989498228948798</v>
       </c>
       <c r="H5">
-        <v>0.9446771174439034</v>
+        <v>1.205328447379785</v>
       </c>
       <c r="I5">
-        <v>1.002716086493868</v>
+        <v>0.9817223918274931</v>
       </c>
       <c r="J5">
-        <v>0.9922935145957116</v>
+        <v>0.9625063948517519</v>
       </c>
       <c r="K5">
-        <v>1.095987374224819</v>
+        <v>0.8989498228948798</v>
       </c>
       <c r="L5">
-        <v>0.9819855445115087</v>
+        <v>1.05902392423989</v>
       </c>
       <c r="M5">
-        <v>0.9908639027763286</v>
+        <v>1.149112006544811</v>
       </c>
       <c r="N5">
-        <v>0.9908639027763286</v>
+        <v>1.149112006544811</v>
       </c>
       <c r="O5">
-        <v>0.9948146306821749</v>
+        <v>1.093315468305705</v>
       </c>
       <c r="P5">
-        <v>1.025905059925825</v>
+        <v>1.065724611994834</v>
       </c>
       <c r="Q5">
-        <v>1.025905059925825</v>
+        <v>1.065724611994834</v>
       </c>
       <c r="R5">
-        <v>1.043425638500574</v>
+        <v>1.024030914719845</v>
       </c>
       <c r="S5">
-        <v>1.043425638500574</v>
+        <v>1.024030914719845</v>
       </c>
       <c r="T5">
-        <v>1.00290031638516</v>
+        <v>1.057788511673922</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -812,58 +869,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9994216394135198</v>
+        <v>1.067806184903408</v>
       </c>
       <c r="D6">
-        <v>1.015167821135583</v>
+        <v>1.271419516597045</v>
       </c>
       <c r="E6">
-        <v>1.156346822551598</v>
+        <v>0.9122130832499998</v>
       </c>
       <c r="F6">
-        <v>1.015167821135583</v>
+        <v>1.271419516597045</v>
       </c>
       <c r="G6">
-        <v>1.156346822551598</v>
+        <v>0.9122130832499998</v>
       </c>
       <c r="H6">
-        <v>0.9205057964863077</v>
+        <v>1.233843819853977</v>
       </c>
       <c r="I6">
-        <v>1.009150855697621</v>
+        <v>0.9710033461704541</v>
       </c>
       <c r="J6">
-        <v>0.9768733072209441</v>
+        <v>0.9566325774431824</v>
       </c>
       <c r="K6">
-        <v>1.156346822551598</v>
+        <v>0.9122130832499998</v>
       </c>
       <c r="L6">
-        <v>0.9994216394135198</v>
+        <v>1.067806184903408</v>
       </c>
       <c r="M6">
-        <v>1.007294730274552</v>
+        <v>1.169612850750227</v>
       </c>
       <c r="N6">
-        <v>1.007294730274552</v>
+        <v>1.169612850750227</v>
       </c>
       <c r="O6">
-        <v>1.007913438748908</v>
+        <v>1.103409682556969</v>
       </c>
       <c r="P6">
-        <v>1.056978761033567</v>
+        <v>1.083812928250151</v>
       </c>
       <c r="Q6">
-        <v>1.056978761033567</v>
+        <v>1.083812928250151</v>
       </c>
       <c r="R6">
-        <v>1.081820776413075</v>
+        <v>1.040912967000113</v>
       </c>
       <c r="S6">
-        <v>1.081820776413075</v>
+        <v>1.040912967000113</v>
       </c>
       <c r="T6">
-        <v>1.012911040417596</v>
+        <v>1.068819754703011</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -874,58 +931,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.00041337334096</v>
+        <v>1.06968938063953</v>
       </c>
       <c r="D7">
-        <v>1.001964744058554</v>
+        <v>0.2362518614536766</v>
       </c>
       <c r="E7">
-        <v>0.9999096111591124</v>
+        <v>1.797121152442445</v>
       </c>
       <c r="F7">
-        <v>1.001964744058554</v>
+        <v>0.2362518614536766</v>
       </c>
       <c r="G7">
-        <v>0.9999096111591124</v>
+        <v>1.797121152442445</v>
       </c>
       <c r="H7">
-        <v>1.001764394695247</v>
+        <v>1.122154072125879</v>
       </c>
       <c r="I7">
-        <v>0.9996428419171198</v>
+        <v>0.4784472764957945</v>
       </c>
       <c r="J7">
-        <v>0.9996222708504067</v>
+        <v>1.210623170670961</v>
       </c>
       <c r="K7">
-        <v>0.9999096111591124</v>
+        <v>1.797121152442445</v>
       </c>
       <c r="L7">
-        <v>1.00041337334096</v>
+        <v>1.06968938063953</v>
       </c>
       <c r="M7">
-        <v>1.001189058699757</v>
+        <v>0.6529706210466032</v>
       </c>
       <c r="N7">
-        <v>1.001189058699757</v>
+        <v>0.6529706210466032</v>
       </c>
       <c r="O7">
-        <v>1.000673653105544</v>
+        <v>0.5947961728630003</v>
       </c>
       <c r="P7">
-        <v>1.000762576186209</v>
+        <v>1.034354131511884</v>
       </c>
       <c r="Q7">
-        <v>1.000762576186209</v>
+        <v>1.034354131511884</v>
       </c>
       <c r="R7">
-        <v>1.000549334929435</v>
+        <v>1.225045886744524</v>
       </c>
       <c r="S7">
-        <v>1.000549334929435</v>
+        <v>1.225045886744524</v>
       </c>
       <c r="T7">
-        <v>1.000552872670233</v>
+        <v>0.9857144856380474</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -936,58 +993,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000736091982743</v>
+        <v>1.069598930381316</v>
       </c>
       <c r="D8">
-        <v>1.003752402361496</v>
+        <v>0.2458146743108857</v>
       </c>
       <c r="E8">
-        <v>1.00159975389846</v>
+        <v>1.801357195120993</v>
       </c>
       <c r="F8">
-        <v>1.003752402361496</v>
+        <v>0.2458146743108857</v>
       </c>
       <c r="G8">
-        <v>1.00159975389846</v>
+        <v>1.801357195120993</v>
       </c>
       <c r="H8">
-        <v>1.003999889073205</v>
+        <v>1.126489434276462</v>
       </c>
       <c r="I8">
-        <v>0.999033185473417</v>
+        <v>0.478761888460251</v>
       </c>
       <c r="J8">
-        <v>0.9990214260114924</v>
+        <v>1.207742982447128</v>
       </c>
       <c r="K8">
-        <v>1.00159975389846</v>
+        <v>1.801357195120993</v>
       </c>
       <c r="L8">
-        <v>1.000736091982743</v>
+        <v>1.069598930381316</v>
       </c>
       <c r="M8">
-        <v>1.00224424717212</v>
+        <v>0.657706802346101</v>
       </c>
       <c r="N8">
-        <v>1.00224424717212</v>
+        <v>0.657706802346101</v>
       </c>
       <c r="O8">
-        <v>1.001173893272552</v>
+        <v>0.5980584977174844</v>
       </c>
       <c r="P8">
-        <v>1.0020294160809</v>
+        <v>1.038923599937732</v>
       </c>
       <c r="Q8">
-        <v>1.0020294160809</v>
+        <v>1.038923599937731</v>
       </c>
       <c r="R8">
-        <v>1.00192200053529</v>
+        <v>1.229531998733547</v>
       </c>
       <c r="S8">
-        <v>1.00192200053529</v>
+        <v>1.229531998733547</v>
       </c>
       <c r="T8">
-        <v>1.001357124800136</v>
+        <v>0.9882941841661724</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -998,58 +1055,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.000241581506902</v>
+        <v>1.071839417502418</v>
       </c>
       <c r="D9">
-        <v>1.004443164042033</v>
+        <v>0.2568167231652743</v>
       </c>
       <c r="E9">
-        <v>1.005422243409984</v>
+        <v>1.796287173013734</v>
       </c>
       <c r="F9">
-        <v>1.004443164042033</v>
+        <v>0.2568167231652743</v>
       </c>
       <c r="G9">
-        <v>1.005422243409984</v>
+        <v>1.796287173013734</v>
       </c>
       <c r="H9">
-        <v>1.003644768235944</v>
+        <v>1.134167182233323</v>
       </c>
       <c r="I9">
-        <v>0.9985767206637098</v>
+        <v>0.4790457904513102</v>
       </c>
       <c r="J9">
-        <v>0.998626064786322</v>
+        <v>1.205713544243601</v>
       </c>
       <c r="K9">
-        <v>1.005422243409984</v>
+        <v>1.796287173013734</v>
       </c>
       <c r="L9">
-        <v>1.000241581506902</v>
+        <v>1.071839417502418</v>
       </c>
       <c r="M9">
-        <v>1.002342372774467</v>
+        <v>0.6643280703338463</v>
       </c>
       <c r="N9">
-        <v>1.002342372774467</v>
+        <v>0.6643280703338463</v>
       </c>
       <c r="O9">
-        <v>1.001087155404215</v>
+        <v>0.602567310373001</v>
       </c>
       <c r="P9">
-        <v>1.003368996319639</v>
+        <v>1.041647771227142</v>
       </c>
       <c r="Q9">
-        <v>1.003368996319639</v>
+        <v>1.041647771227143</v>
       </c>
       <c r="R9">
-        <v>1.003882308092226</v>
+        <v>1.23030762167379</v>
       </c>
       <c r="S9">
-        <v>1.003882308092226</v>
+        <v>1.23030762167379</v>
       </c>
       <c r="T9">
-        <v>1.001825757107482</v>
+        <v>0.990644971768277</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1060,58 +1117,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.0014551184254</v>
+        <v>1.067144054171691</v>
       </c>
       <c r="D10">
-        <v>1.010662248990591</v>
+        <v>0.2741983639857545</v>
       </c>
       <c r="E10">
-        <v>1.007755921168244</v>
+        <v>1.838982385004545</v>
       </c>
       <c r="F10">
-        <v>1.010662248990591</v>
+        <v>0.2741983639857545</v>
       </c>
       <c r="G10">
-        <v>1.007755921168244</v>
+        <v>1.838982385004545</v>
       </c>
       <c r="H10">
-        <v>1.010666914911563</v>
+        <v>1.138670196185671</v>
       </c>
       <c r="I10">
-        <v>0.9969642054895369</v>
+        <v>0.4751230658984699</v>
       </c>
       <c r="J10">
-        <v>0.9970236676244635</v>
+        <v>1.196879319761796</v>
       </c>
       <c r="K10">
-        <v>1.007755921168244</v>
+        <v>1.838982385004545</v>
       </c>
       <c r="L10">
-        <v>1.0014551184254</v>
+        <v>1.067144054171691</v>
       </c>
       <c r="M10">
-        <v>1.006058683707996</v>
+        <v>0.6706712090787226</v>
       </c>
       <c r="N10">
-        <v>1.006058683707996</v>
+        <v>0.6706712090787226</v>
       </c>
       <c r="O10">
-        <v>1.00302719096851</v>
+        <v>0.605488494685305</v>
       </c>
       <c r="P10">
-        <v>1.006624429528079</v>
+        <v>1.060108267720663</v>
       </c>
       <c r="Q10">
-        <v>1.006624429528078</v>
+        <v>1.060108267720663</v>
       </c>
       <c r="R10">
-        <v>1.00690730243812</v>
+        <v>1.254826797041634</v>
       </c>
       <c r="S10">
-        <v>1.00690730243812</v>
+        <v>1.254826797041634</v>
       </c>
       <c r="T10">
-        <v>1.0040880127683</v>
+        <v>0.9984995641679877</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1122,58 +1179,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9994498954210648</v>
+        <v>0.9927723640004079</v>
       </c>
       <c r="D11">
-        <v>1.013413964427211</v>
+        <v>0.9944345519947597</v>
       </c>
       <c r="E11">
-        <v>1.023786138663091</v>
+        <v>1.029355667744329</v>
       </c>
       <c r="F11">
-        <v>1.013413964427211</v>
+        <v>0.9944345519947597</v>
       </c>
       <c r="G11">
-        <v>1.023786138663091</v>
+        <v>1.029355667744329</v>
       </c>
       <c r="H11">
-        <v>1.012179255866814</v>
+        <v>0.9778936823666901</v>
       </c>
       <c r="I11">
-        <v>0.9955104353890499</v>
+        <v>0.9994331717139843</v>
       </c>
       <c r="J11">
-        <v>0.9949875146238187</v>
+        <v>0.9992644470176714</v>
       </c>
       <c r="K11">
-        <v>1.023786138663091</v>
+        <v>1.029355667744329</v>
       </c>
       <c r="L11">
-        <v>0.9994498954210648</v>
+        <v>0.9927723640004079</v>
       </c>
       <c r="M11">
-        <v>1.006431929924138</v>
+        <v>0.9936034579975839</v>
       </c>
       <c r="N11">
-        <v>1.006431929924138</v>
+        <v>0.9936034579975839</v>
       </c>
       <c r="O11">
-        <v>1.002791431745775</v>
+        <v>0.9955466959030507</v>
       </c>
       <c r="P11">
-        <v>1.012216666170455</v>
+        <v>1.005520861246499</v>
       </c>
       <c r="Q11">
-        <v>1.012216666170455</v>
+        <v>1.005520861246499</v>
       </c>
       <c r="R11">
-        <v>1.015109034293614</v>
+        <v>1.011479562870957</v>
       </c>
       <c r="S11">
-        <v>1.015109034293614</v>
+        <v>1.011479562870957</v>
       </c>
       <c r="T11">
-        <v>1.006554534065175</v>
+        <v>0.9988589808063071</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1184,58 +1241,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9058000676625266</v>
+        <v>0.9980628421794143</v>
       </c>
       <c r="D12">
-        <v>0.5242975229237483</v>
+        <v>0.996014941643443</v>
       </c>
       <c r="E12">
-        <v>1.367451572519013</v>
+        <v>1.01540440900042</v>
       </c>
       <c r="F12">
-        <v>0.5242975229237483</v>
+        <v>0.996014941643443</v>
       </c>
       <c r="G12">
-        <v>1.367451572519013</v>
+        <v>1.01540440900042</v>
       </c>
       <c r="H12">
-        <v>0.2955190547006418</v>
+        <v>0.9929269598277628</v>
       </c>
       <c r="I12">
-        <v>1.10415844838367</v>
+        <v>0.9975875963564306</v>
       </c>
       <c r="J12">
-        <v>1.047797231911656</v>
+        <v>1.000026513895965</v>
       </c>
       <c r="K12">
-        <v>1.367451572519013</v>
+        <v>1.01540440900042</v>
       </c>
       <c r="L12">
-        <v>0.9058000676625266</v>
+        <v>0.9980628421794143</v>
       </c>
       <c r="M12">
-        <v>0.7150487952931375</v>
+        <v>0.9970388919114286</v>
       </c>
       <c r="N12">
-        <v>0.7150487952931375</v>
+        <v>0.9970388919114286</v>
       </c>
       <c r="O12">
-        <v>0.8447520129899818</v>
+        <v>0.9972217933930959</v>
       </c>
       <c r="P12">
-        <v>0.9325163877017628</v>
+        <v>1.003160730941092</v>
       </c>
       <c r="Q12">
-        <v>0.9325163877017628</v>
+        <v>1.003160730941092</v>
       </c>
       <c r="R12">
-        <v>1.041250183906075</v>
+        <v>1.006221650455924</v>
       </c>
       <c r="S12">
-        <v>1.041250183906075</v>
+        <v>1.006221650455924</v>
       </c>
       <c r="T12">
-        <v>0.8741706496835429</v>
+        <v>1.000003877150573</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1246,58 +1303,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9559112217430918</v>
+        <v>0.9910672857307643</v>
       </c>
       <c r="D13">
-        <v>1.465386549296405</v>
+        <v>0.9860806463660997</v>
       </c>
       <c r="E13">
-        <v>0.9135524736007585</v>
+        <v>1.05181785771548</v>
       </c>
       <c r="F13">
-        <v>1.465386549296405</v>
+        <v>0.9860806463660997</v>
       </c>
       <c r="G13">
-        <v>0.9135524736007585</v>
+        <v>1.05181785771548</v>
       </c>
       <c r="H13">
-        <v>1.291586212764821</v>
+        <v>0.9720484059959857</v>
       </c>
       <c r="I13">
-        <v>0.9487592721989307</v>
+        <v>0.9906440681455103</v>
       </c>
       <c r="J13">
-        <v>0.9498782134979767</v>
+        <v>1.002598276800865</v>
       </c>
       <c r="K13">
-        <v>0.9135524736007585</v>
+        <v>1.05181785771548</v>
       </c>
       <c r="L13">
-        <v>0.9559112217430918</v>
+        <v>0.9910672857307643</v>
       </c>
       <c r="M13">
-        <v>1.210648885519749</v>
+        <v>0.9885739660484321</v>
       </c>
       <c r="N13">
-        <v>1.210648885519749</v>
+        <v>0.9885739660484321</v>
       </c>
       <c r="O13">
-        <v>1.123352347746143</v>
+        <v>0.9892640000807914</v>
       </c>
       <c r="P13">
-        <v>1.111616748213419</v>
+        <v>1.009655263270781</v>
       </c>
       <c r="Q13">
-        <v>1.111616748213419</v>
+        <v>1.009655263270781</v>
       </c>
       <c r="R13">
-        <v>1.062100679560254</v>
+        <v>1.020195911881956</v>
       </c>
       <c r="S13">
-        <v>1.062100679560254</v>
+        <v>1.020195911881956</v>
       </c>
       <c r="T13">
-        <v>1.087512323850331</v>
+        <v>0.9990427567924507</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1308,58 +1365,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9742458777296152</v>
+        <v>0.9867993399230423</v>
       </c>
       <c r="D14">
-        <v>1.737560417288984</v>
+        <v>0.9997546275688511</v>
       </c>
       <c r="E14">
-        <v>0.6255072321765257</v>
+        <v>1.067910555572869</v>
       </c>
       <c r="F14">
-        <v>1.737560417288984</v>
+        <v>0.9997546275688511</v>
       </c>
       <c r="G14">
-        <v>0.6255072321765257</v>
+        <v>1.067910555572869</v>
       </c>
       <c r="H14">
-        <v>1.314279643418631</v>
+        <v>0.9560792354357687</v>
       </c>
       <c r="I14">
-        <v>1.148330836567969</v>
+        <v>1.002042800147873</v>
       </c>
       <c r="J14">
-        <v>0.9081754660064649</v>
+        <v>0.993770659760969</v>
       </c>
       <c r="K14">
-        <v>0.6255072321765257</v>
+        <v>1.067910555572869</v>
       </c>
       <c r="L14">
-        <v>0.9742458777296152</v>
+        <v>0.9867993399230423</v>
       </c>
       <c r="M14">
-        <v>1.3559031475093</v>
+        <v>0.9932769837459468</v>
       </c>
       <c r="N14">
-        <v>1.3559031475093</v>
+        <v>0.9932769837459468</v>
       </c>
       <c r="O14">
-        <v>1.286712377195523</v>
+        <v>0.996198922546589</v>
       </c>
       <c r="P14">
-        <v>1.112437842398375</v>
+        <v>1.018154841021587</v>
       </c>
       <c r="Q14">
-        <v>1.112437842398375</v>
+        <v>1.018154841021587</v>
       </c>
       <c r="R14">
-        <v>0.9907051898429127</v>
+        <v>1.030593769659407</v>
       </c>
       <c r="S14">
-        <v>0.9907051898429127</v>
+        <v>1.030593769659407</v>
       </c>
       <c r="T14">
-        <v>1.118016578864698</v>
+        <v>1.001059536401562</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1370,58 +1427,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.016310253986152</v>
+        <v>0.9951878957092909</v>
       </c>
       <c r="D15">
-        <v>0.6323739763359562</v>
+        <v>0.9993041966129168</v>
       </c>
       <c r="E15">
-        <v>0.97840586922342</v>
+        <v>1.025144789947068</v>
       </c>
       <c r="F15">
-        <v>0.6323739763359562</v>
+        <v>0.9993041966129168</v>
       </c>
       <c r="G15">
-        <v>0.97840586922342</v>
+        <v>1.025144789947068</v>
       </c>
       <c r="H15">
-        <v>0.7473766971540057</v>
+        <v>0.9836838572145354</v>
       </c>
       <c r="I15">
-        <v>1.070986411344868</v>
+        <v>1.000447423893858</v>
       </c>
       <c r="J15">
-        <v>1.00175823847852</v>
+        <v>0.9973346660181278</v>
       </c>
       <c r="K15">
-        <v>0.97840586922342</v>
+        <v>1.025144789947068</v>
       </c>
       <c r="L15">
-        <v>1.016310253986152</v>
+        <v>0.9951878957092909</v>
       </c>
       <c r="M15">
-        <v>0.8243421151610543</v>
+        <v>0.9972460461611039</v>
       </c>
       <c r="N15">
-        <v>0.8243421151610543</v>
+        <v>0.9972460461611039</v>
       </c>
       <c r="O15">
-        <v>0.9065568805556588</v>
+        <v>0.9983131720720219</v>
       </c>
       <c r="P15">
-        <v>0.8756966998485095</v>
+        <v>1.006545627423092</v>
       </c>
       <c r="Q15">
-        <v>0.8756966998485095</v>
+        <v>1.006545627423092</v>
       </c>
       <c r="R15">
-        <v>0.9013739921922371</v>
+        <v>1.011195418054086</v>
       </c>
       <c r="S15">
-        <v>0.9013739921922371</v>
+        <v>1.011195418054086</v>
       </c>
       <c r="T15">
-        <v>0.9078685744204869</v>
+        <v>1.000183804899299</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1432,58 +1489,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9090269504671833</v>
+        <v>0.9896331371669096</v>
       </c>
       <c r="D16">
-        <v>1.003260044362084</v>
+        <v>0.9976974056591632</v>
       </c>
       <c r="E16">
-        <v>1.412039083785934</v>
+        <v>1.049340798865434</v>
       </c>
       <c r="F16">
-        <v>1.003260044362084</v>
+        <v>0.9976974056591632</v>
       </c>
       <c r="G16">
-        <v>1.412039083785934</v>
+        <v>1.049340798865434</v>
       </c>
       <c r="H16">
-        <v>0.7055446589074096</v>
+        <v>0.9684263341830096</v>
       </c>
       <c r="I16">
-        <v>1.017569624230751</v>
+        <v>1.00073550742747</v>
       </c>
       <c r="J16">
-        <v>0.9593735847823748</v>
+        <v>0.9952914626482522</v>
       </c>
       <c r="K16">
-        <v>1.412039083785934</v>
+        <v>1.049340798865434</v>
       </c>
       <c r="L16">
-        <v>0.9090269504671833</v>
+        <v>0.9896331371669096</v>
       </c>
       <c r="M16">
-        <v>0.9561434974146337</v>
+        <v>0.9936652714130364</v>
       </c>
       <c r="N16">
-        <v>0.9561434974146337</v>
+        <v>0.9936652714130364</v>
       </c>
       <c r="O16">
-        <v>0.9766188730200062</v>
+        <v>0.9960220167511812</v>
       </c>
       <c r="P16">
-        <v>1.108108692871734</v>
+        <v>1.012223780563836</v>
       </c>
       <c r="Q16">
-        <v>1.108108692871734</v>
+        <v>1.012223780563835</v>
       </c>
       <c r="R16">
-        <v>1.184091290600284</v>
+        <v>1.021503035139235</v>
       </c>
       <c r="S16">
-        <v>1.184091290600284</v>
+        <v>1.021503035139235</v>
       </c>
       <c r="T16">
-        <v>1.001135657755956</v>
+        <v>1.000187440991706</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1494,58 +1551,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9528361611472602</v>
+        <v>0.9819855445115087</v>
       </c>
       <c r="D17">
-        <v>1.061178117595809</v>
+        <v>0.9997422610411486</v>
       </c>
       <c r="E17">
-        <v>1.237393226341469</v>
+        <v>1.095987374224819</v>
       </c>
       <c r="F17">
-        <v>1.061178117595809</v>
+        <v>0.9997422610411486</v>
       </c>
       <c r="G17">
-        <v>1.237393226341469</v>
+        <v>1.095987374224819</v>
       </c>
       <c r="H17">
-        <v>0.852760247639252</v>
+        <v>0.9446771174439034</v>
       </c>
       <c r="I17">
-        <v>1.013167669915372</v>
+        <v>1.002716086493868</v>
       </c>
       <c r="J17">
-        <v>0.9636308759124764</v>
+        <v>0.9922935145957116</v>
       </c>
       <c r="K17">
-        <v>1.237393226341469</v>
+        <v>1.095987374224819</v>
       </c>
       <c r="L17">
-        <v>0.9528361611472602</v>
+        <v>0.9819855445115087</v>
       </c>
       <c r="M17">
-        <v>1.007007139371535</v>
+        <v>0.9908639027763286</v>
       </c>
       <c r="N17">
-        <v>1.007007139371535</v>
+        <v>0.9908639027763286</v>
       </c>
       <c r="O17">
-        <v>1.009060649552813</v>
+        <v>0.9948146306821749</v>
       </c>
       <c r="P17">
-        <v>1.083802501694846</v>
+        <v>1.025905059925825</v>
       </c>
       <c r="Q17">
-        <v>1.083802501694846</v>
+        <v>1.025905059925825</v>
       </c>
       <c r="R17">
-        <v>1.122200182856501</v>
+        <v>1.043425638500574</v>
       </c>
       <c r="S17">
-        <v>1.122200182856501</v>
+        <v>1.043425638500574</v>
       </c>
       <c r="T17">
-        <v>1.013494383091939</v>
+        <v>1.00290031638516</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1556,58 +1613,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.038881895556477</v>
+        <v>0.9994216394135198</v>
       </c>
       <c r="D18">
-        <v>1.173449173555999</v>
+        <v>1.015167821135583</v>
       </c>
       <c r="E18">
-        <v>0.8943679930788919</v>
+        <v>1.156346822551598</v>
       </c>
       <c r="F18">
-        <v>1.173449173555999</v>
+        <v>1.015167821135583</v>
       </c>
       <c r="G18">
-        <v>0.8943679930788919</v>
+        <v>1.156346822551598</v>
       </c>
       <c r="H18">
-        <v>1.143282015938244</v>
+        <v>0.9205057964863077</v>
       </c>
       <c r="I18">
-        <v>1.004136803828313</v>
+        <v>1.009150855697621</v>
       </c>
       <c r="J18">
-        <v>0.9722756318678779</v>
+        <v>0.9768733072209441</v>
       </c>
       <c r="K18">
-        <v>0.8943679930788919</v>
+        <v>1.156346822551598</v>
       </c>
       <c r="L18">
-        <v>1.038881895556477</v>
+        <v>0.9994216394135198</v>
       </c>
       <c r="M18">
-        <v>1.106165534556238</v>
+        <v>1.007294730274552</v>
       </c>
       <c r="N18">
-        <v>1.106165534556238</v>
+        <v>1.007294730274552</v>
       </c>
       <c r="O18">
-        <v>1.07215595764693</v>
+        <v>1.007913438748908</v>
       </c>
       <c r="P18">
-        <v>1.035566354063789</v>
+        <v>1.056978761033567</v>
       </c>
       <c r="Q18">
-        <v>1.035566354063789</v>
+        <v>1.056978761033567</v>
       </c>
       <c r="R18">
-        <v>1.000266763817565</v>
+        <v>1.081820776413075</v>
       </c>
       <c r="S18">
-        <v>1.000266763817565</v>
+        <v>1.081820776413075</v>
       </c>
       <c r="T18">
-        <v>1.0377322523043</v>
+        <v>1.012911040417596</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1618,58 +1675,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.060055515148158</v>
+        <v>1.00041337334096</v>
       </c>
       <c r="D19">
-        <v>1.238894755146833</v>
+        <v>1.001964744058554</v>
       </c>
       <c r="E19">
-        <v>0.8409583458274509</v>
+        <v>0.9999096111591124</v>
       </c>
       <c r="F19">
-        <v>1.238894755146833</v>
+        <v>1.001964744058554</v>
       </c>
       <c r="G19">
-        <v>0.8409583458274509</v>
+        <v>0.9999096111591124</v>
       </c>
       <c r="H19">
-        <v>1.224218702463185</v>
+        <v>1.001764394695247</v>
       </c>
       <c r="I19">
-        <v>0.9957690713245142</v>
+        <v>0.9996428419171198</v>
       </c>
       <c r="J19">
-        <v>0.9649188822764647</v>
+        <v>0.9996222708504067</v>
       </c>
       <c r="K19">
-        <v>0.8409583458274509</v>
+        <v>0.9999096111591124</v>
       </c>
       <c r="L19">
-        <v>1.060055515148158</v>
+        <v>1.00041337334096</v>
       </c>
       <c r="M19">
-        <v>1.149475135147495</v>
+        <v>1.001189058699757</v>
       </c>
       <c r="N19">
-        <v>1.149475135147495</v>
+        <v>1.001189058699757</v>
       </c>
       <c r="O19">
-        <v>1.098239780539835</v>
+        <v>1.000673653105544</v>
       </c>
       <c r="P19">
-        <v>1.046636205374147</v>
+        <v>1.000762576186209</v>
       </c>
       <c r="Q19">
-        <v>1.046636205374147</v>
+        <v>1.000762576186209</v>
       </c>
       <c r="R19">
-        <v>0.995216740487473</v>
+        <v>1.000549334929435</v>
       </c>
       <c r="S19">
-        <v>0.995216740487473</v>
+        <v>1.000549334929435</v>
       </c>
       <c r="T19">
-        <v>1.054135878697767</v>
+        <v>1.000552872670233</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1680,58 +1737,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.003054716196678</v>
+        <v>1.000736091982743</v>
       </c>
       <c r="D20">
-        <v>1.000547447310705</v>
+        <v>1.003752402361496</v>
       </c>
       <c r="E20">
-        <v>0.993455293527991</v>
+        <v>1.00159975389846</v>
       </c>
       <c r="F20">
-        <v>1.000547447310705</v>
+        <v>1.003752402361496</v>
       </c>
       <c r="G20">
-        <v>0.993455293527991</v>
+        <v>1.00159975389846</v>
       </c>
       <c r="H20">
-        <v>1.00521871669402</v>
+        <v>1.003999889073205</v>
       </c>
       <c r="I20">
-        <v>1.000014457200248</v>
+        <v>0.999033185473417</v>
       </c>
       <c r="J20">
-        <v>0.9998963774510461</v>
+        <v>0.9990214260114924</v>
       </c>
       <c r="K20">
-        <v>0.993455293527991</v>
+        <v>1.00159975389846</v>
       </c>
       <c r="L20">
-        <v>1.003054716196678</v>
+        <v>1.000736091982743</v>
       </c>
       <c r="M20">
-        <v>1.001801081753692</v>
+        <v>1.00224424717212</v>
       </c>
       <c r="N20">
-        <v>1.001801081753692</v>
+        <v>1.00224424717212</v>
       </c>
       <c r="O20">
-        <v>1.001205540235877</v>
+        <v>1.001173893272552</v>
       </c>
       <c r="P20">
-        <v>0.999019152345125</v>
+        <v>1.0020294160809</v>
       </c>
       <c r="Q20">
-        <v>0.9990191523451247</v>
+        <v>1.0020294160809</v>
       </c>
       <c r="R20">
-        <v>0.9976281876408413</v>
+        <v>1.00192200053529</v>
       </c>
       <c r="S20">
-        <v>0.9976281876408413</v>
+        <v>1.00192200053529</v>
       </c>
       <c r="T20">
-        <v>1.000364501396781</v>
+        <v>1.001357124800136</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1742,58 +1799,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9963540467058953</v>
+        <v>1.000241581506902</v>
       </c>
       <c r="D21">
-        <v>1.001563704069303</v>
+        <v>1.004443164042033</v>
       </c>
       <c r="E21">
-        <v>1.008366134383959</v>
+        <v>1.005422243409984</v>
       </c>
       <c r="F21">
-        <v>1.001563704069303</v>
+        <v>1.004443164042033</v>
       </c>
       <c r="G21">
-        <v>1.008366134383959</v>
+        <v>1.005422243409984</v>
       </c>
       <c r="H21">
-        <v>0.9957487340508335</v>
+        <v>1.003644768235944</v>
       </c>
       <c r="I21">
-        <v>0.9994552097983425</v>
+        <v>0.9985767206637098</v>
       </c>
       <c r="J21">
-        <v>0.9995709910448528</v>
+        <v>0.998626064786322</v>
       </c>
       <c r="K21">
-        <v>1.008366134383959</v>
+        <v>1.005422243409984</v>
       </c>
       <c r="L21">
-        <v>0.9963540467058953</v>
+        <v>1.000241581506902</v>
       </c>
       <c r="M21">
-        <v>0.9989588753875992</v>
+        <v>1.002342372774467</v>
       </c>
       <c r="N21">
-        <v>0.9989588753875992</v>
+        <v>1.002342372774467</v>
       </c>
       <c r="O21">
-        <v>0.9991243201911804</v>
+        <v>1.001087155404215</v>
       </c>
       <c r="P21">
-        <v>1.002094628386386</v>
+        <v>1.003368996319639</v>
       </c>
       <c r="Q21">
-        <v>1.002094628386386</v>
+        <v>1.003368996319639</v>
       </c>
       <c r="R21">
-        <v>1.003662504885779</v>
+        <v>1.003882308092226</v>
       </c>
       <c r="S21">
-        <v>1.003662504885779</v>
+        <v>1.003882308092226</v>
       </c>
       <c r="T21">
-        <v>1.000176470008864</v>
+        <v>1.001825757107482</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1804,58 +1861,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.004935907958623</v>
+        <v>1.0014551184254</v>
       </c>
       <c r="D22">
-        <v>0.9938723881077177</v>
+        <v>1.010662248990591</v>
       </c>
       <c r="E22">
-        <v>1.003791802394072</v>
+        <v>1.007755921168244</v>
       </c>
       <c r="F22">
-        <v>0.9938723881077177</v>
+        <v>1.010662248990591</v>
       </c>
       <c r="G22">
-        <v>1.003791802394072</v>
+        <v>1.007755921168244</v>
       </c>
       <c r="H22">
-        <v>1.009178850053638</v>
+        <v>1.010666914911563</v>
       </c>
       <c r="I22">
-        <v>0.9994038467739389</v>
+        <v>0.9969642054895369</v>
       </c>
       <c r="J22">
-        <v>0.9977174400839748</v>
+        <v>0.9970236676244635</v>
       </c>
       <c r="K22">
-        <v>1.003791802394072</v>
+        <v>1.007755921168244</v>
       </c>
       <c r="L22">
-        <v>1.004935907958623</v>
+        <v>1.0014551184254</v>
       </c>
       <c r="M22">
-        <v>0.9994041480331703</v>
+        <v>1.006058683707996</v>
       </c>
       <c r="N22">
-        <v>0.9994041480331703</v>
+        <v>1.006058683707996</v>
       </c>
       <c r="O22">
-        <v>0.9994040476134266</v>
+        <v>1.00302719096851</v>
       </c>
       <c r="P22">
-        <v>1.000866699486805</v>
+        <v>1.006624429528079</v>
       </c>
       <c r="Q22">
-        <v>1.000866699486805</v>
+        <v>1.006624429528078</v>
       </c>
       <c r="R22">
-        <v>1.001597975213621</v>
+        <v>1.00690730243812</v>
       </c>
       <c r="S22">
-        <v>1.001597975213621</v>
+        <v>1.00690730243812</v>
       </c>
       <c r="T22">
-        <v>1.001483372561994</v>
+        <v>1.0040880127683</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1866,58 +1923,1236 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>0.9994498954210648</v>
+      </c>
+      <c r="D23">
+        <v>1.013413964427211</v>
+      </c>
+      <c r="E23">
+        <v>1.023786138663091</v>
+      </c>
+      <c r="F23">
+        <v>1.013413964427211</v>
+      </c>
+      <c r="G23">
+        <v>1.023786138663091</v>
+      </c>
+      <c r="H23">
+        <v>1.012179255866814</v>
+      </c>
+      <c r="I23">
+        <v>0.9955104353890499</v>
+      </c>
+      <c r="J23">
+        <v>0.9949875146238187</v>
+      </c>
+      <c r="K23">
+        <v>1.023786138663091</v>
+      </c>
+      <c r="L23">
+        <v>0.9994498954210648</v>
+      </c>
+      <c r="M23">
+        <v>1.006431929924138</v>
+      </c>
+      <c r="N23">
+        <v>1.006431929924138</v>
+      </c>
+      <c r="O23">
+        <v>1.002791431745775</v>
+      </c>
+      <c r="P23">
+        <v>1.012216666170455</v>
+      </c>
+      <c r="Q23">
+        <v>1.012216666170455</v>
+      </c>
+      <c r="R23">
+        <v>1.015109034293614</v>
+      </c>
+      <c r="S23">
+        <v>1.015109034293614</v>
+      </c>
+      <c r="T23">
+        <v>1.006554534065175</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.9058000676625266</v>
+      </c>
+      <c r="D24">
+        <v>0.5242975229237483</v>
+      </c>
+      <c r="E24">
+        <v>1.367451572519013</v>
+      </c>
+      <c r="F24">
+        <v>0.5242975229237483</v>
+      </c>
+      <c r="G24">
+        <v>1.367451572519013</v>
+      </c>
+      <c r="H24">
+        <v>0.2955190547006418</v>
+      </c>
+      <c r="I24">
+        <v>1.10415844838367</v>
+      </c>
+      <c r="J24">
+        <v>1.047797231911656</v>
+      </c>
+      <c r="K24">
+        <v>1.367451572519013</v>
+      </c>
+      <c r="L24">
+        <v>0.9058000676625266</v>
+      </c>
+      <c r="M24">
+        <v>0.7150487952931375</v>
+      </c>
+      <c r="N24">
+        <v>0.7150487952931375</v>
+      </c>
+      <c r="O24">
+        <v>0.8447520129899818</v>
+      </c>
+      <c r="P24">
+        <v>0.9325163877017628</v>
+      </c>
+      <c r="Q24">
+        <v>0.9325163877017628</v>
+      </c>
+      <c r="R24">
+        <v>1.041250183906075</v>
+      </c>
+      <c r="S24">
+        <v>1.041250183906075</v>
+      </c>
+      <c r="T24">
+        <v>0.8741706496835429</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.9559112217430918</v>
+      </c>
+      <c r="D25">
+        <v>1.465386549296405</v>
+      </c>
+      <c r="E25">
+        <v>0.9135524736007585</v>
+      </c>
+      <c r="F25">
+        <v>1.465386549296405</v>
+      </c>
+      <c r="G25">
+        <v>0.9135524736007585</v>
+      </c>
+      <c r="H25">
+        <v>1.291586212764821</v>
+      </c>
+      <c r="I25">
+        <v>0.9487592721989307</v>
+      </c>
+      <c r="J25">
+        <v>0.9498782134979767</v>
+      </c>
+      <c r="K25">
+        <v>0.9135524736007585</v>
+      </c>
+      <c r="L25">
+        <v>0.9559112217430918</v>
+      </c>
+      <c r="M25">
+        <v>1.210648885519749</v>
+      </c>
+      <c r="N25">
+        <v>1.210648885519749</v>
+      </c>
+      <c r="O25">
+        <v>1.123352347746143</v>
+      </c>
+      <c r="P25">
+        <v>1.111616748213419</v>
+      </c>
+      <c r="Q25">
+        <v>1.111616748213419</v>
+      </c>
+      <c r="R25">
+        <v>1.062100679560254</v>
+      </c>
+      <c r="S25">
+        <v>1.062100679560254</v>
+      </c>
+      <c r="T25">
+        <v>1.087512323850331</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.9742458777296152</v>
+      </c>
+      <c r="D26">
+        <v>1.737560417288984</v>
+      </c>
+      <c r="E26">
+        <v>0.6255072321765257</v>
+      </c>
+      <c r="F26">
+        <v>1.737560417288984</v>
+      </c>
+      <c r="G26">
+        <v>0.6255072321765257</v>
+      </c>
+      <c r="H26">
+        <v>1.314279643418631</v>
+      </c>
+      <c r="I26">
+        <v>1.148330836567969</v>
+      </c>
+      <c r="J26">
+        <v>0.9081754660064649</v>
+      </c>
+      <c r="K26">
+        <v>0.6255072321765257</v>
+      </c>
+      <c r="L26">
+        <v>0.9742458777296152</v>
+      </c>
+      <c r="M26">
+        <v>1.3559031475093</v>
+      </c>
+      <c r="N26">
+        <v>1.3559031475093</v>
+      </c>
+      <c r="O26">
+        <v>1.286712377195523</v>
+      </c>
+      <c r="P26">
+        <v>1.112437842398375</v>
+      </c>
+      <c r="Q26">
+        <v>1.112437842398375</v>
+      </c>
+      <c r="R26">
+        <v>0.9907051898429127</v>
+      </c>
+      <c r="S26">
+        <v>0.9907051898429127</v>
+      </c>
+      <c r="T26">
+        <v>1.118016578864698</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.016310253986152</v>
+      </c>
+      <c r="D27">
+        <v>0.6323739763359562</v>
+      </c>
+      <c r="E27">
+        <v>0.97840586922342</v>
+      </c>
+      <c r="F27">
+        <v>0.6323739763359562</v>
+      </c>
+      <c r="G27">
+        <v>0.97840586922342</v>
+      </c>
+      <c r="H27">
+        <v>0.7473766971540057</v>
+      </c>
+      <c r="I27">
+        <v>1.070986411344868</v>
+      </c>
+      <c r="J27">
+        <v>1.00175823847852</v>
+      </c>
+      <c r="K27">
+        <v>0.97840586922342</v>
+      </c>
+      <c r="L27">
+        <v>1.016310253986152</v>
+      </c>
+      <c r="M27">
+        <v>0.8243421151610543</v>
+      </c>
+      <c r="N27">
+        <v>0.8243421151610543</v>
+      </c>
+      <c r="O27">
+        <v>0.9065568805556588</v>
+      </c>
+      <c r="P27">
+        <v>0.8756966998485095</v>
+      </c>
+      <c r="Q27">
+        <v>0.8756966998485095</v>
+      </c>
+      <c r="R27">
+        <v>0.9013739921922371</v>
+      </c>
+      <c r="S27">
+        <v>0.9013739921922371</v>
+      </c>
+      <c r="T27">
+        <v>0.9078685744204869</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.9090269504671833</v>
+      </c>
+      <c r="D28">
+        <v>1.003260044362084</v>
+      </c>
+      <c r="E28">
+        <v>1.412039083785934</v>
+      </c>
+      <c r="F28">
+        <v>1.003260044362084</v>
+      </c>
+      <c r="G28">
+        <v>1.412039083785934</v>
+      </c>
+      <c r="H28">
+        <v>0.7055446589074096</v>
+      </c>
+      <c r="I28">
+        <v>1.017569624230751</v>
+      </c>
+      <c r="J28">
+        <v>0.9593735847823748</v>
+      </c>
+      <c r="K28">
+        <v>1.412039083785934</v>
+      </c>
+      <c r="L28">
+        <v>0.9090269504671833</v>
+      </c>
+      <c r="M28">
+        <v>0.9561434974146337</v>
+      </c>
+      <c r="N28">
+        <v>0.9561434974146337</v>
+      </c>
+      <c r="O28">
+        <v>0.9766188730200062</v>
+      </c>
+      <c r="P28">
+        <v>1.108108692871734</v>
+      </c>
+      <c r="Q28">
+        <v>1.108108692871734</v>
+      </c>
+      <c r="R28">
+        <v>1.184091290600284</v>
+      </c>
+      <c r="S28">
+        <v>1.184091290600284</v>
+      </c>
+      <c r="T28">
+        <v>1.001135657755956</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.9528361611472602</v>
+      </c>
+      <c r="D29">
+        <v>1.061178117595809</v>
+      </c>
+      <c r="E29">
+        <v>1.237393226341469</v>
+      </c>
+      <c r="F29">
+        <v>1.061178117595809</v>
+      </c>
+      <c r="G29">
+        <v>1.237393226341469</v>
+      </c>
+      <c r="H29">
+        <v>0.852760247639252</v>
+      </c>
+      <c r="I29">
+        <v>1.013167669915372</v>
+      </c>
+      <c r="J29">
+        <v>0.9636308759124764</v>
+      </c>
+      <c r="K29">
+        <v>1.237393226341469</v>
+      </c>
+      <c r="L29">
+        <v>0.9528361611472602</v>
+      </c>
+      <c r="M29">
+        <v>1.007007139371535</v>
+      </c>
+      <c r="N29">
+        <v>1.007007139371535</v>
+      </c>
+      <c r="O29">
+        <v>1.009060649552813</v>
+      </c>
+      <c r="P29">
+        <v>1.083802501694846</v>
+      </c>
+      <c r="Q29">
+        <v>1.083802501694846</v>
+      </c>
+      <c r="R29">
+        <v>1.122200182856501</v>
+      </c>
+      <c r="S29">
+        <v>1.122200182856501</v>
+      </c>
+      <c r="T29">
+        <v>1.013494383091939</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.038881895556477</v>
+      </c>
+      <c r="D30">
+        <v>1.173449173555999</v>
+      </c>
+      <c r="E30">
+        <v>0.8943679930788919</v>
+      </c>
+      <c r="F30">
+        <v>1.173449173555999</v>
+      </c>
+      <c r="G30">
+        <v>0.8943679930788919</v>
+      </c>
+      <c r="H30">
+        <v>1.143282015938244</v>
+      </c>
+      <c r="I30">
+        <v>1.004136803828313</v>
+      </c>
+      <c r="J30">
+        <v>0.9722756318678779</v>
+      </c>
+      <c r="K30">
+        <v>0.8943679930788919</v>
+      </c>
+      <c r="L30">
+        <v>1.038881895556477</v>
+      </c>
+      <c r="M30">
+        <v>1.106165534556238</v>
+      </c>
+      <c r="N30">
+        <v>1.106165534556238</v>
+      </c>
+      <c r="O30">
+        <v>1.07215595764693</v>
+      </c>
+      <c r="P30">
+        <v>1.035566354063789</v>
+      </c>
+      <c r="Q30">
+        <v>1.035566354063789</v>
+      </c>
+      <c r="R30">
+        <v>1.000266763817565</v>
+      </c>
+      <c r="S30">
+        <v>1.000266763817565</v>
+      </c>
+      <c r="T30">
+        <v>1.0377322523043</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>1.060055515148158</v>
+      </c>
+      <c r="D31">
+        <v>1.238894755146833</v>
+      </c>
+      <c r="E31">
+        <v>0.8409583458274509</v>
+      </c>
+      <c r="F31">
+        <v>1.238894755146833</v>
+      </c>
+      <c r="G31">
+        <v>0.8409583458274509</v>
+      </c>
+      <c r="H31">
+        <v>1.224218702463185</v>
+      </c>
+      <c r="I31">
+        <v>0.9957690713245142</v>
+      </c>
+      <c r="J31">
+        <v>0.9649188822764647</v>
+      </c>
+      <c r="K31">
+        <v>0.8409583458274509</v>
+      </c>
+      <c r="L31">
+        <v>1.060055515148158</v>
+      </c>
+      <c r="M31">
+        <v>1.149475135147495</v>
+      </c>
+      <c r="N31">
+        <v>1.149475135147495</v>
+      </c>
+      <c r="O31">
+        <v>1.098239780539835</v>
+      </c>
+      <c r="P31">
+        <v>1.046636205374147</v>
+      </c>
+      <c r="Q31">
+        <v>1.046636205374147</v>
+      </c>
+      <c r="R31">
+        <v>0.995216740487473</v>
+      </c>
+      <c r="S31">
+        <v>0.995216740487473</v>
+      </c>
+      <c r="T31">
+        <v>1.054135878697767</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>0.8538677693561645</v>
+      </c>
+      <c r="D32">
+        <v>0.9332815789482192</v>
+      </c>
+      <c r="E32">
+        <v>1.670462587561643</v>
+      </c>
+      <c r="F32">
+        <v>0.9332815789482192</v>
+      </c>
+      <c r="G32">
+        <v>1.670462587561643</v>
+      </c>
+      <c r="H32">
+        <v>0.5516401080452055</v>
+      </c>
+      <c r="I32">
+        <v>1.008447953917808</v>
+      </c>
+      <c r="J32">
+        <v>0.9500777921917809</v>
+      </c>
+      <c r="K32">
+        <v>1.670462587561643</v>
+      </c>
+      <c r="L32">
+        <v>0.8538677693561645</v>
+      </c>
+      <c r="M32">
+        <v>0.8935746741521918</v>
+      </c>
+      <c r="N32">
+        <v>0.8935746741521918</v>
+      </c>
+      <c r="O32">
+        <v>0.9318657674073973</v>
+      </c>
+      <c r="P32">
+        <v>1.152537311955342</v>
+      </c>
+      <c r="Q32">
+        <v>1.152537311955342</v>
+      </c>
+      <c r="R32">
+        <v>1.282018630856918</v>
+      </c>
+      <c r="S32">
+        <v>1.282018630856918</v>
+      </c>
+      <c r="T32">
+        <v>0.994629631670137</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>1.179244668421053</v>
+      </c>
+      <c r="D33">
+        <v>1.794860318363158</v>
+      </c>
+      <c r="E33">
+        <v>0.9047664444210525</v>
+      </c>
+      <c r="F33">
+        <v>1.794860318363158</v>
+      </c>
+      <c r="G33">
+        <v>0.9047664444210525</v>
+      </c>
+      <c r="H33">
+        <v>2.761211605263158</v>
+      </c>
+      <c r="I33">
+        <v>0.5695333412105263</v>
+      </c>
+      <c r="J33">
+        <v>0.8302895278947368</v>
+      </c>
+      <c r="K33">
+        <v>0.9047664444210525</v>
+      </c>
+      <c r="L33">
+        <v>1.179244668421053</v>
+      </c>
+      <c r="M33">
+        <v>1.487052493392105</v>
+      </c>
+      <c r="N33">
+        <v>1.487052493392105</v>
+      </c>
+      <c r="O33">
+        <v>1.181212775998246</v>
+      </c>
+      <c r="P33">
+        <v>1.292957143735088</v>
+      </c>
+      <c r="Q33">
+        <v>1.292957143735088</v>
+      </c>
+      <c r="R33">
+        <v>1.195909468906579</v>
+      </c>
+      <c r="S33">
+        <v>1.195909468906579</v>
+      </c>
+      <c r="T33">
+        <v>1.339984317595614</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>1.076748395157895</v>
+      </c>
+      <c r="D34">
+        <v>0.4311448356852634</v>
+      </c>
+      <c r="E34">
+        <v>1.802887933</v>
+      </c>
+      <c r="F34">
+        <v>0.4311448356852634</v>
+      </c>
+      <c r="G34">
+        <v>1.802887933</v>
+      </c>
+      <c r="H34">
+        <v>1.213289674026316</v>
+      </c>
+      <c r="I34">
+        <v>0.4965446607368421</v>
+      </c>
+      <c r="J34">
+        <v>1.15915974</v>
+      </c>
+      <c r="K34">
+        <v>1.802887933</v>
+      </c>
+      <c r="L34">
+        <v>1.076748395157895</v>
+      </c>
+      <c r="M34">
+        <v>0.7539466154215791</v>
+      </c>
+      <c r="N34">
+        <v>0.7539466154215791</v>
+      </c>
+      <c r="O34">
+        <v>0.6681459638600001</v>
+      </c>
+      <c r="P34">
+        <v>1.103593721281053</v>
+      </c>
+      <c r="Q34">
+        <v>1.103593721281053</v>
+      </c>
+      <c r="R34">
+        <v>1.27841727421079</v>
+      </c>
+      <c r="S34">
+        <v>1.27841727421079</v>
+      </c>
+      <c r="T34">
+        <v>1.029962539767719</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>1.298190127785517</v>
+      </c>
+      <c r="D35">
+        <v>2.103170085973516</v>
+      </c>
+      <c r="E35">
+        <v>0.4469271811709307</v>
+      </c>
+      <c r="F35">
+        <v>2.103170085973516</v>
+      </c>
+      <c r="G35">
+        <v>0.4469271811709307</v>
+      </c>
+      <c r="H35">
+        <v>1.987010801934406</v>
+      </c>
+      <c r="I35">
+        <v>0.8978757699621841</v>
+      </c>
+      <c r="J35">
+        <v>0.8338973395450804</v>
+      </c>
+      <c r="K35">
+        <v>0.4469271811709307</v>
+      </c>
+      <c r="L35">
+        <v>1.298190127785517</v>
+      </c>
+      <c r="M35">
+        <v>1.700680106879517</v>
+      </c>
+      <c r="N35">
+        <v>1.700680106879517</v>
+      </c>
+      <c r="O35">
+        <v>1.433078661240406</v>
+      </c>
+      <c r="P35">
+        <v>1.282762464976655</v>
+      </c>
+      <c r="Q35">
+        <v>1.282762464976655</v>
+      </c>
+      <c r="R35">
+        <v>1.073803644025224</v>
+      </c>
+      <c r="S35">
+        <v>1.073803644025224</v>
+      </c>
+      <c r="T35">
+        <v>1.261178551061939</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>1.003054716196678</v>
+      </c>
+      <c r="D36">
+        <v>1.000547447310705</v>
+      </c>
+      <c r="E36">
+        <v>0.993455293527991</v>
+      </c>
+      <c r="F36">
+        <v>1.000547447310705</v>
+      </c>
+      <c r="G36">
+        <v>0.993455293527991</v>
+      </c>
+      <c r="H36">
+        <v>1.00521871669402</v>
+      </c>
+      <c r="I36">
+        <v>1.000014457200248</v>
+      </c>
+      <c r="J36">
+        <v>0.9998963774510461</v>
+      </c>
+      <c r="K36">
+        <v>0.993455293527991</v>
+      </c>
+      <c r="L36">
+        <v>1.003054716196678</v>
+      </c>
+      <c r="M36">
+        <v>1.001801081753692</v>
+      </c>
+      <c r="N36">
+        <v>1.001801081753692</v>
+      </c>
+      <c r="O36">
+        <v>1.001205540235877</v>
+      </c>
+      <c r="P36">
+        <v>0.999019152345125</v>
+      </c>
+      <c r="Q36">
+        <v>0.9990191523451247</v>
+      </c>
+      <c r="R36">
+        <v>0.9976281876408413</v>
+      </c>
+      <c r="S36">
+        <v>0.9976281876408413</v>
+      </c>
+      <c r="T36">
+        <v>1.000364501396781</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>0.9963540467058953</v>
+      </c>
+      <c r="D37">
+        <v>1.001563704069303</v>
+      </c>
+      <c r="E37">
+        <v>1.008366134383959</v>
+      </c>
+      <c r="F37">
+        <v>1.001563704069303</v>
+      </c>
+      <c r="G37">
+        <v>1.008366134383959</v>
+      </c>
+      <c r="H37">
+        <v>0.9957487340508335</v>
+      </c>
+      <c r="I37">
+        <v>0.9994552097983425</v>
+      </c>
+      <c r="J37">
+        <v>0.9995709910448528</v>
+      </c>
+      <c r="K37">
+        <v>1.008366134383959</v>
+      </c>
+      <c r="L37">
+        <v>0.9963540467058953</v>
+      </c>
+      <c r="M37">
+        <v>0.9989588753875992</v>
+      </c>
+      <c r="N37">
+        <v>0.9989588753875992</v>
+      </c>
+      <c r="O37">
+        <v>0.9991243201911804</v>
+      </c>
+      <c r="P37">
+        <v>1.002094628386386</v>
+      </c>
+      <c r="Q37">
+        <v>1.002094628386386</v>
+      </c>
+      <c r="R37">
+        <v>1.003662504885779</v>
+      </c>
+      <c r="S37">
+        <v>1.003662504885779</v>
+      </c>
+      <c r="T37">
+        <v>1.000176470008864</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>1.004935907958623</v>
+      </c>
+      <c r="D38">
+        <v>0.9938723881077177</v>
+      </c>
+      <c r="E38">
+        <v>1.003791802394072</v>
+      </c>
+      <c r="F38">
+        <v>0.9938723881077177</v>
+      </c>
+      <c r="G38">
+        <v>1.003791802394072</v>
+      </c>
+      <c r="H38">
+        <v>1.009178850053638</v>
+      </c>
+      <c r="I38">
+        <v>0.9994038467739389</v>
+      </c>
+      <c r="J38">
+        <v>0.9977174400839748</v>
+      </c>
+      <c r="K38">
+        <v>1.003791802394072</v>
+      </c>
+      <c r="L38">
+        <v>1.004935907958623</v>
+      </c>
+      <c r="M38">
+        <v>0.9994041480331703</v>
+      </c>
+      <c r="N38">
+        <v>0.9994041480331703</v>
+      </c>
+      <c r="O38">
+        <v>0.9994040476134266</v>
+      </c>
+      <c r="P38">
+        <v>1.000866699486805</v>
+      </c>
+      <c r="Q38">
+        <v>1.000866699486805</v>
+      </c>
+      <c r="R38">
+        <v>1.001597975213621</v>
+      </c>
+      <c r="S38">
+        <v>1.001597975213621</v>
+      </c>
+      <c r="T38">
+        <v>1.001483372561994</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>1.022626762243706</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>0.9971050077671598</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>0.9495585098975111</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>0.9971050077671598</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>0.9495585098975111</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>1.023269698706081</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>1.001910314625178</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>1.004488788656324</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>0.9495585098975111</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>1.022626762243706</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>1.009865885005433</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>1.009865885005433</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>1.007214028212015</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>0.9897634266361256</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>0.9897634266361256</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>0.979712197451472</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>0.979712197451472</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>0.9998265136493267</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>1.066070180064562</v>
+      </c>
+      <c r="D40">
+        <v>0.8425410956059464</v>
+      </c>
+      <c r="E40">
+        <v>1.025631824476334</v>
+      </c>
+      <c r="F40">
+        <v>0.8425410956059464</v>
+      </c>
+      <c r="G40">
+        <v>1.025631824476334</v>
+      </c>
+      <c r="H40">
+        <v>1.345581090192642</v>
+      </c>
+      <c r="I40">
+        <v>0.8536708593817769</v>
+      </c>
+      <c r="J40">
+        <v>1.036814510255178</v>
+      </c>
+      <c r="K40">
+        <v>1.025631824476334</v>
+      </c>
+      <c r="L40">
+        <v>1.066070180064562</v>
+      </c>
+      <c r="M40">
+        <v>0.9543056378352541</v>
+      </c>
+      <c r="N40">
+        <v>0.9543056378352541</v>
+      </c>
+      <c r="O40">
+        <v>0.9207607116840951</v>
+      </c>
+      <c r="P40">
+        <v>0.9780810333822809</v>
+      </c>
+      <c r="Q40">
+        <v>0.978081033382281</v>
+      </c>
+      <c r="R40">
+        <v>0.9899687311557944</v>
+      </c>
+      <c r="S40">
+        <v>0.9899687311557944</v>
+      </c>
+      <c r="T40">
+        <v>1.02838492666274</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>0.9910959822700087</v>
+      </c>
+      <c r="D41">
+        <v>0.9702945841777931</v>
+      </c>
+      <c r="E41">
+        <v>1.059898937565865</v>
+      </c>
+      <c r="F41">
+        <v>0.9702945841777931</v>
+      </c>
+      <c r="G41">
+        <v>1.059898937565865</v>
+      </c>
+      <c r="H41">
+        <v>0.8773055961382465</v>
+      </c>
+      <c r="I41">
+        <v>1.005001298383362</v>
+      </c>
+      <c r="J41">
+        <v>1.005753165727396</v>
+      </c>
+      <c r="K41">
+        <v>1.059898937565865</v>
+      </c>
+      <c r="L41">
+        <v>0.9910959822700087</v>
+      </c>
+      <c r="M41">
+        <v>0.9806952832239009</v>
+      </c>
+      <c r="N41">
+        <v>0.9806952832239009</v>
+      </c>
+      <c r="O41">
+        <v>0.9887972882770546</v>
+      </c>
+      <c r="P41">
+        <v>1.007096501337889</v>
+      </c>
+      <c r="Q41">
+        <v>1.007096501337889</v>
+      </c>
+      <c r="R41">
+        <v>1.020297110394883</v>
+      </c>
+      <c r="S41">
+        <v>1.020297110394883</v>
+      </c>
+      <c r="T41">
+        <v>0.9848915940437784</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>1.019897172274993</v>
+      </c>
+      <c r="D42">
+        <v>1.032115257542862</v>
+      </c>
+      <c r="E42">
+        <v>0.9802809553197764</v>
+      </c>
+      <c r="F42">
+        <v>1.032115257542862</v>
+      </c>
+      <c r="G42">
+        <v>0.9802809553197764</v>
+      </c>
+      <c r="H42">
+        <v>1.087095213088744</v>
+      </c>
+      <c r="I42">
+        <v>0.9838148480112453</v>
+      </c>
+      <c r="J42">
+        <v>0.9957568566325881</v>
+      </c>
+      <c r="K42">
+        <v>0.9802809553197764</v>
+      </c>
+      <c r="L42">
+        <v>1.019897172274993</v>
+      </c>
+      <c r="M42">
+        <v>1.026006214908928</v>
+      </c>
+      <c r="N42">
+        <v>1.026006214908928</v>
+      </c>
+      <c r="O42">
+        <v>1.011942425943034</v>
+      </c>
+      <c r="P42">
+        <v>1.010764461712544</v>
+      </c>
+      <c r="Q42">
+        <v>1.010764461712544</v>
+      </c>
+      <c r="R42">
+        <v>1.003143585114352</v>
+      </c>
+      <c r="S42">
+        <v>1.003143585114352</v>
+      </c>
+      <c r="T42">
+        <v>1.016493383811702</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/AlphaFiberF-HW10.xlsx
+++ b/JupyterNotebooks/AvgHW/AlphaFiberF-HW10.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,36 +85,36 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
     <t>[2, 2, 2]</t>
   </si>
   <si>
@@ -89,9 +122,6 @@
   </si>
   <si>
     <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +509,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +573,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +582,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -674,61 +644,61 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.025144789947068</v>
+        <v>1.000736091982743</v>
       </c>
       <c r="D3">
-        <v>0.9993041966129167</v>
+        <v>1.003752402361496</v>
       </c>
       <c r="E3">
-        <v>0.9951878957092909</v>
+        <v>1.00159975389846</v>
       </c>
       <c r="F3">
-        <v>1.025144789947068</v>
+        <v>1.003752402361496</v>
       </c>
       <c r="G3">
-        <v>0.9836838572145354</v>
+        <v>1.00159975389846</v>
       </c>
       <c r="H3">
-        <v>1.000447423893858</v>
+        <v>1.003999889073205</v>
       </c>
       <c r="I3">
-        <v>0.9973346660181277</v>
+        <v>0.999033185473417</v>
       </c>
       <c r="J3">
-        <v>0.9993041966129167</v>
+        <v>0.9990214260114924</v>
       </c>
       <c r="K3">
-        <v>1.025144789947068</v>
+        <v>1.00159975389846</v>
       </c>
       <c r="L3">
-        <v>0.9951878957092909</v>
+        <v>1.000736091982743</v>
       </c>
       <c r="M3">
-        <v>0.9972460461611038</v>
+        <v>1.00224424717212</v>
       </c>
       <c r="N3">
-        <v>0.9972460461611038</v>
+        <v>1.00224424717212</v>
       </c>
       <c r="O3">
-        <v>0.9983131720720216</v>
+        <v>1.001173893272552</v>
       </c>
       <c r="P3">
-        <v>1.006545627423092</v>
+        <v>1.0020294160809</v>
       </c>
       <c r="Q3">
-        <v>1.006545627423092</v>
+        <v>1.0020294160809</v>
       </c>
       <c r="R3">
-        <v>1.011195418054086</v>
+        <v>1.00192200053529</v>
       </c>
       <c r="S3">
-        <v>1.011195418054086</v>
+        <v>1.00192200053529</v>
       </c>
       <c r="T3">
-        <v>1.000183804899299</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30">
+        <v>1.001357124800136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -736,61 +706,61 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.049340798865434</v>
+        <v>1.066070180064562</v>
       </c>
       <c r="D4">
-        <v>0.9976974056591632</v>
+        <v>0.8425410956059464</v>
       </c>
       <c r="E4">
-        <v>0.9896331371669096</v>
+        <v>1.025631824476334</v>
       </c>
       <c r="F4">
-        <v>1.049340798865434</v>
+        <v>0.8425410956059464</v>
       </c>
       <c r="G4">
-        <v>0.9684263341830096</v>
+        <v>1.025631824476334</v>
       </c>
       <c r="H4">
-        <v>1.00073550742747</v>
+        <v>1.345581090192642</v>
       </c>
       <c r="I4">
-        <v>0.9952914626482522</v>
+        <v>0.8536708593817769</v>
       </c>
       <c r="J4">
-        <v>0.9976974056591632</v>
+        <v>1.036814510255178</v>
       </c>
       <c r="K4">
-        <v>1.049340798865434</v>
+        <v>1.025631824476334</v>
       </c>
       <c r="L4">
-        <v>0.9896331371669096</v>
+        <v>1.066070180064562</v>
       </c>
       <c r="M4">
-        <v>0.9936652714130364</v>
+        <v>0.9543056378352541</v>
       </c>
       <c r="N4">
-        <v>0.9936652714130364</v>
+        <v>0.9543056378352541</v>
       </c>
       <c r="O4">
-        <v>0.9960220167511812</v>
+        <v>0.9207607116840951</v>
       </c>
       <c r="P4">
-        <v>1.012223780563836</v>
+        <v>0.9780810333822809</v>
       </c>
       <c r="Q4">
-        <v>1.012223780563835</v>
+        <v>0.978081033382281</v>
       </c>
       <c r="R4">
-        <v>1.021503035139235</v>
+        <v>0.9899687311557944</v>
       </c>
       <c r="S4">
-        <v>1.021503035139235</v>
+        <v>0.9899687311557944</v>
       </c>
       <c r="T4">
-        <v>1.000187440991706</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30">
+        <v>1.02838492666274</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -798,61 +768,61 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.095987374224819</v>
+        <v>1.050230368360231</v>
       </c>
       <c r="D5">
-        <v>0.9997422610411486</v>
+        <v>1.207067306072318</v>
       </c>
       <c r="E5">
-        <v>0.9819855445115087</v>
+        <v>0.8894085226217588</v>
       </c>
       <c r="F5">
-        <v>1.095987374224819</v>
+        <v>1.207067306072318</v>
       </c>
       <c r="G5">
-        <v>0.9446771174439034</v>
+        <v>0.8894085226217588</v>
       </c>
       <c r="H5">
-        <v>1.002716086493868</v>
+        <v>1.176062099459868</v>
       </c>
       <c r="I5">
-        <v>0.9922935145957116</v>
+        <v>0.9935203840100914</v>
       </c>
       <c r="J5">
-        <v>0.9997422610411486</v>
+        <v>0.967996282046111</v>
       </c>
       <c r="K5">
-        <v>1.095987374224819</v>
+        <v>0.8894085226217588</v>
       </c>
       <c r="L5">
-        <v>0.9819855445115087</v>
+        <v>1.050230368360231</v>
       </c>
       <c r="M5">
-        <v>0.9908639027763286</v>
+        <v>1.128648837216275</v>
       </c>
       <c r="N5">
-        <v>0.9908639027763286</v>
+        <v>1.128648837216275</v>
       </c>
       <c r="O5">
-        <v>0.9948146306821749</v>
+        <v>1.08360601948088</v>
       </c>
       <c r="P5">
-        <v>1.025905059925825</v>
+        <v>1.048902065684769</v>
       </c>
       <c r="Q5">
-        <v>1.025905059925825</v>
+        <v>1.048902065684769</v>
       </c>
       <c r="R5">
-        <v>1.043425638500574</v>
+        <v>1.009028679919017</v>
       </c>
       <c r="S5">
-        <v>1.043425638500574</v>
+        <v>1.009028679919017</v>
       </c>
       <c r="T5">
-        <v>1.00290031638516</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30">
+        <v>1.047380827095063</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -860,61 +830,61 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.156346822551598</v>
+        <v>1.298190127785517</v>
       </c>
       <c r="D6">
-        <v>1.015167821135583</v>
+        <v>2.103170085973516</v>
       </c>
       <c r="E6">
-        <v>0.9994216394135198</v>
+        <v>0.4469271811709307</v>
       </c>
       <c r="F6">
-        <v>1.156346822551598</v>
+        <v>2.103170085973516</v>
       </c>
       <c r="G6">
-        <v>0.9205057964863077</v>
+        <v>0.4469271811709307</v>
       </c>
       <c r="H6">
-        <v>1.009150855697621</v>
+        <v>1.987010801934406</v>
       </c>
       <c r="I6">
-        <v>0.9768733072209441</v>
+        <v>0.8978757699621841</v>
       </c>
       <c r="J6">
-        <v>1.015167821135583</v>
+        <v>0.8338973395450804</v>
       </c>
       <c r="K6">
-        <v>1.156346822551598</v>
+        <v>0.4469271811709307</v>
       </c>
       <c r="L6">
-        <v>0.9994216394135198</v>
+        <v>1.298190127785517</v>
       </c>
       <c r="M6">
-        <v>1.007294730274552</v>
+        <v>1.700680106879517</v>
       </c>
       <c r="N6">
-        <v>1.007294730274552</v>
+        <v>1.700680106879517</v>
       </c>
       <c r="O6">
-        <v>1.007913438748908</v>
+        <v>1.433078661240406</v>
       </c>
       <c r="P6">
-        <v>1.056978761033567</v>
+        <v>1.282762464976655</v>
       </c>
       <c r="Q6">
-        <v>1.056978761033567</v>
+        <v>1.282762464976655</v>
       </c>
       <c r="R6">
-        <v>1.081820776413075</v>
+        <v>1.073803644025224</v>
       </c>
       <c r="S6">
-        <v>1.081820776413075</v>
+        <v>1.073803644025224</v>
       </c>
       <c r="T6">
-        <v>1.012911040417596</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30">
+        <v>1.261178551061939</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,61 +892,61 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.999909611159113</v>
+        <v>0.9927723640004079</v>
       </c>
       <c r="D7">
-        <v>1.001964744058553</v>
+        <v>0.9944345519947597</v>
       </c>
       <c r="E7">
-        <v>1.000413373340959</v>
+        <v>1.029355667744329</v>
       </c>
       <c r="F7">
-        <v>0.999909611159113</v>
+        <v>0.9944345519947597</v>
       </c>
       <c r="G7">
-        <v>1.001764394695247</v>
+        <v>1.029355667744329</v>
       </c>
       <c r="H7">
-        <v>0.9996428419171198</v>
+        <v>0.9778936823666901</v>
       </c>
       <c r="I7">
-        <v>0.9996222708504067</v>
+        <v>0.9994331717139843</v>
       </c>
       <c r="J7">
-        <v>1.001964744058553</v>
+        <v>0.9992644470176714</v>
       </c>
       <c r="K7">
-        <v>0.999909611159113</v>
+        <v>1.029355667744329</v>
       </c>
       <c r="L7">
-        <v>1.000413373340959</v>
+        <v>0.9927723640004079</v>
       </c>
       <c r="M7">
-        <v>1.001189058699756</v>
+        <v>0.9936034579975839</v>
       </c>
       <c r="N7">
-        <v>1.001189058699756</v>
+        <v>0.9936034579975839</v>
       </c>
       <c r="O7">
-        <v>1.000673653105544</v>
+        <v>0.9955466959030507</v>
       </c>
       <c r="P7">
-        <v>1.000762576186209</v>
+        <v>1.005520861246499</v>
       </c>
       <c r="Q7">
-        <v>1.000762576186208</v>
+        <v>1.005520861246499</v>
       </c>
       <c r="R7">
-        <v>1.000549334929435</v>
+        <v>1.011479562870957</v>
       </c>
       <c r="S7">
-        <v>1.000549334929435</v>
+        <v>1.011479562870957</v>
       </c>
       <c r="T7">
-        <v>1.000552872670233</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30">
+        <v>0.9988589808063071</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -984,61 +954,61 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.001599753898461</v>
+        <v>0.9963540467058953</v>
       </c>
       <c r="D8">
-        <v>1.003752402361495</v>
+        <v>1.001563704069303</v>
       </c>
       <c r="E8">
-        <v>1.000736091982744</v>
+        <v>1.008366134383959</v>
       </c>
       <c r="F8">
-        <v>1.001599753898461</v>
+        <v>1.001563704069303</v>
       </c>
       <c r="G8">
-        <v>1.003999889073205</v>
+        <v>1.008366134383959</v>
       </c>
       <c r="H8">
-        <v>0.9990331854734175</v>
+        <v>0.9957487340508335</v>
       </c>
       <c r="I8">
-        <v>0.9990214260114924</v>
+        <v>0.9994552097983425</v>
       </c>
       <c r="J8">
-        <v>1.003752402361495</v>
+        <v>0.9995709910448528</v>
       </c>
       <c r="K8">
-        <v>1.001599753898461</v>
+        <v>1.008366134383959</v>
       </c>
       <c r="L8">
-        <v>1.000736091982744</v>
+        <v>0.9963540467058953</v>
       </c>
       <c r="M8">
-        <v>1.002244247172119</v>
+        <v>0.9989588753875992</v>
       </c>
       <c r="N8">
-        <v>1.002244247172119</v>
+        <v>0.9989588753875992</v>
       </c>
       <c r="O8">
-        <v>1.001173893272552</v>
+        <v>0.9991243201911804</v>
       </c>
       <c r="P8">
-        <v>1.0020294160809</v>
+        <v>1.002094628386386</v>
       </c>
       <c r="Q8">
-        <v>1.0020294160809</v>
+        <v>1.002094628386386</v>
       </c>
       <c r="R8">
-        <v>1.00192200053529</v>
+        <v>1.003662504885779</v>
       </c>
       <c r="S8">
-        <v>1.00192200053529</v>
+        <v>1.003662504885779</v>
       </c>
       <c r="T8">
-        <v>1.001357124800136</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30">
+        <v>1.000176470008864</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1046,61 +1016,61 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.005422243409984</v>
+        <v>0.9896331371669096</v>
       </c>
       <c r="D9">
-        <v>1.004443164042033</v>
+        <v>0.9976974056591632</v>
       </c>
       <c r="E9">
-        <v>1.000241581506902</v>
+        <v>1.049340798865434</v>
       </c>
       <c r="F9">
-        <v>1.005422243409984</v>
+        <v>0.9976974056591632</v>
       </c>
       <c r="G9">
-        <v>1.003644768235944</v>
+        <v>1.049340798865434</v>
       </c>
       <c r="H9">
-        <v>0.9985767206637098</v>
+        <v>0.9684263341830096</v>
       </c>
       <c r="I9">
-        <v>0.998626064786322</v>
+        <v>1.00073550742747</v>
       </c>
       <c r="J9">
-        <v>1.004443164042033</v>
+        <v>0.9952914626482522</v>
       </c>
       <c r="K9">
-        <v>1.005422243409984</v>
+        <v>1.049340798865434</v>
       </c>
       <c r="L9">
-        <v>1.000241581506902</v>
+        <v>0.9896331371669096</v>
       </c>
       <c r="M9">
-        <v>1.002342372774467</v>
+        <v>0.9936652714130364</v>
       </c>
       <c r="N9">
-        <v>1.002342372774467</v>
+        <v>0.9936652714130364</v>
       </c>
       <c r="O9">
-        <v>1.001087155404215</v>
+        <v>0.9960220167511812</v>
       </c>
       <c r="P9">
-        <v>1.003368996319639</v>
+        <v>1.012223780563836</v>
       </c>
       <c r="Q9">
-        <v>1.003368996319639</v>
+        <v>1.012223780563835</v>
       </c>
       <c r="R9">
-        <v>1.003882308092225</v>
+        <v>1.021503035139235</v>
       </c>
       <c r="S9">
-        <v>1.003882308092225</v>
+        <v>1.021503035139235</v>
       </c>
       <c r="T9">
-        <v>1.001825757107482</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30">
+        <v>1.000187440991706</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1108,61 +1078,61 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.007755921168244</v>
+        <v>1.304001310975977</v>
       </c>
       <c r="D10">
-        <v>1.010662248990591</v>
+        <v>2.134789069373484</v>
       </c>
       <c r="E10">
-        <v>1.0014551184254</v>
+        <v>0.4299722257973211</v>
       </c>
       <c r="F10">
-        <v>1.007755921168244</v>
+        <v>2.134789069373484</v>
       </c>
       <c r="G10">
-        <v>1.010666914911563</v>
+        <v>0.4299722257973211</v>
       </c>
       <c r="H10">
-        <v>0.9969642054895369</v>
+        <v>2.01934312333908</v>
       </c>
       <c r="I10">
-        <v>0.9970236676244635</v>
+        <v>0.8947856385011765</v>
       </c>
       <c r="J10">
-        <v>1.010662248990591</v>
+        <v>0.8297279838658951</v>
       </c>
       <c r="K10">
-        <v>1.007755921168244</v>
+        <v>0.4299722257973211</v>
       </c>
       <c r="L10">
-        <v>1.0014551184254</v>
+        <v>1.304001310975977</v>
       </c>
       <c r="M10">
-        <v>1.006058683707996</v>
+        <v>1.719395190174731</v>
       </c>
       <c r="N10">
-        <v>1.006058683707996</v>
+        <v>1.719395190174731</v>
       </c>
       <c r="O10">
-        <v>1.00302719096851</v>
+        <v>1.444525339616879</v>
       </c>
       <c r="P10">
-        <v>1.006624429528079</v>
+        <v>1.289587535382261</v>
       </c>
       <c r="Q10">
-        <v>1.006624429528078</v>
+        <v>1.289587535382261</v>
       </c>
       <c r="R10">
-        <v>1.00690730243812</v>
+        <v>1.074683707986026</v>
       </c>
       <c r="S10">
-        <v>1.00690730243812</v>
+        <v>1.074683707986026</v>
       </c>
       <c r="T10">
-        <v>1.0040880127683</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30">
+        <v>1.268769891975489</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1170,61 +1140,61 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.023786138663091</v>
+        <v>1.055810257182046</v>
       </c>
       <c r="D11">
-        <v>1.013413964427211</v>
+        <v>0.7987163191398667</v>
       </c>
       <c r="E11">
-        <v>0.9994498954210648</v>
+        <v>1.068514884509925</v>
       </c>
       <c r="F11">
-        <v>1.023786138663091</v>
+        <v>0.7987163191398667</v>
       </c>
       <c r="G11">
-        <v>1.012179255866814</v>
+        <v>1.068514884509925</v>
       </c>
       <c r="H11">
-        <v>0.9955104353890499</v>
+        <v>1.125044502374012</v>
       </c>
       <c r="I11">
-        <v>0.9949875146238187</v>
+        <v>0.8860817884144688</v>
       </c>
       <c r="J11">
-        <v>1.013413964427211</v>
+        <v>1.04901445405644</v>
       </c>
       <c r="K11">
-        <v>1.023786138663091</v>
+        <v>1.068514884509925</v>
       </c>
       <c r="L11">
-        <v>0.9994498954210648</v>
+        <v>1.055810257182046</v>
       </c>
       <c r="M11">
-        <v>1.006431929924138</v>
+        <v>0.9272632881609563</v>
       </c>
       <c r="N11">
-        <v>1.006431929924138</v>
+        <v>0.9272632881609563</v>
       </c>
       <c r="O11">
-        <v>1.002791431745775</v>
+        <v>0.9135361215787938</v>
       </c>
       <c r="P11">
-        <v>1.012216666170455</v>
+        <v>0.9743471536106125</v>
       </c>
       <c r="Q11">
-        <v>1.012216666170455</v>
+        <v>0.9743471536106125</v>
       </c>
       <c r="R11">
-        <v>1.015109034293614</v>
+        <v>0.9978890863354406</v>
       </c>
       <c r="S11">
-        <v>1.015109034293614</v>
+        <v>0.9978890863354406</v>
       </c>
       <c r="T11">
-        <v>1.006554534065175</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30">
+        <v>0.9971970342794597</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1232,61 +1202,61 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.367451572519013</v>
+        <v>1.08070678686316</v>
       </c>
       <c r="D12">
-        <v>0.5242975229237484</v>
+        <v>1.298115410658103</v>
       </c>
       <c r="E12">
-        <v>0.9058000676625266</v>
+        <v>0.8111980739105271</v>
       </c>
       <c r="F12">
-        <v>1.367451572519013</v>
+        <v>1.298115410658103</v>
       </c>
       <c r="G12">
-        <v>0.2955190547006419</v>
+        <v>0.8111980739105271</v>
       </c>
       <c r="H12">
-        <v>1.10415844838367</v>
+        <v>1.294382579291578</v>
       </c>
       <c r="I12">
-        <v>1.047797231911656</v>
+        <v>0.9836564127894777</v>
       </c>
       <c r="J12">
-        <v>0.5242975229237484</v>
+        <v>0.9558831715263163</v>
       </c>
       <c r="K12">
-        <v>1.367451572519013</v>
+        <v>0.8111980739105271</v>
       </c>
       <c r="L12">
-        <v>0.9058000676625266</v>
+        <v>1.08070678686316</v>
       </c>
       <c r="M12">
-        <v>0.7150487952931375</v>
+        <v>1.189411098760632</v>
       </c>
       <c r="N12">
-        <v>0.7150487952931375</v>
+        <v>1.189411098760632</v>
       </c>
       <c r="O12">
-        <v>0.8447520129899818</v>
+        <v>1.120826203436914</v>
       </c>
       <c r="P12">
-        <v>0.9325163877017625</v>
+        <v>1.063340090477264</v>
       </c>
       <c r="Q12">
-        <v>0.9325163877017625</v>
+        <v>1.063340090477263</v>
       </c>
       <c r="R12">
-        <v>1.041250183906075</v>
+        <v>1.00030458633558</v>
       </c>
       <c r="S12">
-        <v>1.041250183906075</v>
+        <v>1.00030458633558</v>
       </c>
       <c r="T12">
-        <v>0.8741706496835427</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30">
+        <v>1.070657072506527</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1294,61 +1264,61 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9135524736007584</v>
+        <v>0.9836022399625064</v>
       </c>
       <c r="D13">
-        <v>1.465386549296405</v>
+        <v>0.9791229966752392</v>
       </c>
       <c r="E13">
-        <v>0.9559112217430918</v>
+        <v>1.036572726428923</v>
       </c>
       <c r="F13">
-        <v>0.9135524736007584</v>
+        <v>0.9791229966752392</v>
       </c>
       <c r="G13">
-        <v>1.291586212764821</v>
+        <v>1.036572726428923</v>
       </c>
       <c r="H13">
-        <v>0.9487592721989305</v>
+        <v>1.013706507361473</v>
       </c>
       <c r="I13">
-        <v>0.9498782134979767</v>
+        <v>0.9791322784428291</v>
       </c>
       <c r="J13">
-        <v>1.465386549296405</v>
+        <v>1.007514897531236</v>
       </c>
       <c r="K13">
-        <v>0.9135524736007584</v>
+        <v>1.036572726428923</v>
       </c>
       <c r="L13">
-        <v>0.9559112217430918</v>
+        <v>0.9836022399625064</v>
       </c>
       <c r="M13">
-        <v>1.210648885519749</v>
+        <v>0.9813626183188728</v>
       </c>
       <c r="N13">
-        <v>1.210648885519749</v>
+        <v>0.9813626183188728</v>
       </c>
       <c r="O13">
-        <v>1.123352347746142</v>
+        <v>0.980619171693525</v>
       </c>
       <c r="P13">
-        <v>1.111616748213418</v>
+        <v>0.9997659876888895</v>
       </c>
       <c r="Q13">
-        <v>1.111616748213418</v>
+        <v>0.9997659876888895</v>
       </c>
       <c r="R13">
-        <v>1.062100679560253</v>
+        <v>1.008967672373898</v>
       </c>
       <c r="S13">
-        <v>1.062100679560253</v>
+        <v>1.008967672373898</v>
       </c>
       <c r="T13">
-        <v>1.087512323850331</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30">
+        <v>0.9999419410670346</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1356,61 +1326,61 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.6255072321765257</v>
+        <v>1.5558482</v>
       </c>
       <c r="D14">
-        <v>1.737560417288984</v>
+        <v>3.032666500000003</v>
       </c>
       <c r="E14">
-        <v>0.9742458777296152</v>
+        <v>0.012211266</v>
       </c>
       <c r="F14">
-        <v>0.6255072321765257</v>
+        <v>3.032666500000003</v>
       </c>
       <c r="G14">
-        <v>1.314279643418631</v>
+        <v>0.012211266</v>
       </c>
       <c r="H14">
-        <v>1.148330836567969</v>
+        <v>2.828552900000004</v>
       </c>
       <c r="I14">
-        <v>0.9081754660064649</v>
+        <v>0.7899615500000006</v>
       </c>
       <c r="J14">
-        <v>1.737560417288984</v>
+        <v>0.6944221199999993</v>
       </c>
       <c r="K14">
-        <v>0.6255072321765257</v>
+        <v>0.012211266</v>
       </c>
       <c r="L14">
-        <v>0.9742458777296152</v>
+        <v>1.5558482</v>
       </c>
       <c r="M14">
-        <v>1.3559031475093</v>
+        <v>2.294257350000001</v>
       </c>
       <c r="N14">
-        <v>1.3559031475093</v>
+        <v>2.294257350000001</v>
       </c>
       <c r="O14">
-        <v>1.286712377195523</v>
+        <v>1.792825416666668</v>
       </c>
       <c r="P14">
-        <v>1.112437842398375</v>
+        <v>1.533575322000001</v>
       </c>
       <c r="Q14">
-        <v>1.112437842398375</v>
+        <v>1.533575322000001</v>
       </c>
       <c r="R14">
-        <v>0.9907051898429127</v>
+        <v>1.153234308000001</v>
       </c>
       <c r="S14">
-        <v>0.9907051898429127</v>
+        <v>1.153234308000001</v>
       </c>
       <c r="T14">
-        <v>1.118016578864698</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30">
+        <v>1.485610422666668</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1418,61 +1388,61 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9784058692234199</v>
+        <v>0.026860481</v>
       </c>
       <c r="D15">
-        <v>0.6323739763359562</v>
+        <v>0.00064866866</v>
       </c>
       <c r="E15">
-        <v>1.016310253986152</v>
+        <v>7.6546011</v>
       </c>
       <c r="F15">
-        <v>0.9784058692234199</v>
+        <v>0.00064866866</v>
       </c>
       <c r="G15">
-        <v>0.7473766971540057</v>
+        <v>7.6546011</v>
       </c>
       <c r="H15">
-        <v>1.070986411344868</v>
+        <v>0.007481255500000001</v>
       </c>
       <c r="I15">
-        <v>1.00175823847852</v>
+        <v>0.05715137000000001</v>
       </c>
       <c r="J15">
-        <v>0.6323739763359562</v>
+        <v>0.60377661</v>
       </c>
       <c r="K15">
-        <v>0.9784058692234199</v>
+        <v>7.6546011</v>
       </c>
       <c r="L15">
-        <v>1.016310253986152</v>
+        <v>0.026860481</v>
       </c>
       <c r="M15">
-        <v>0.8243421151610543</v>
+        <v>0.01375457483</v>
       </c>
       <c r="N15">
-        <v>0.8243421151610543</v>
+        <v>0.01375457483</v>
       </c>
       <c r="O15">
-        <v>0.9065568805556588</v>
+        <v>0.02822017322</v>
       </c>
       <c r="P15">
-        <v>0.8756966998485094</v>
+        <v>2.560703416553333</v>
       </c>
       <c r="Q15">
-        <v>0.8756966998485094</v>
+        <v>2.560703416553333</v>
       </c>
       <c r="R15">
-        <v>0.901373992192237</v>
+        <v>3.834177837415</v>
       </c>
       <c r="S15">
-        <v>0.901373992192237</v>
+        <v>3.834177837415</v>
       </c>
       <c r="T15">
-        <v>0.9078685744204869</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30">
+        <v>1.391753247526667</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1450,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9934552935279907</v>
+        <v>1.3384376</v>
       </c>
       <c r="D16">
-        <v>1.000547447310705</v>
+        <v>0.0012056893</v>
       </c>
       <c r="E16">
-        <v>1.003054716196678</v>
+        <v>1.5239555</v>
       </c>
       <c r="F16">
-        <v>0.9934552935279907</v>
+        <v>0.0012056893</v>
       </c>
       <c r="G16">
-        <v>1.005218716694018</v>
+        <v>1.5239555</v>
       </c>
       <c r="H16">
-        <v>1.000014457200248</v>
+        <v>4.3661859</v>
       </c>
       <c r="I16">
-        <v>0.999896377451046</v>
+        <v>0.025927233</v>
       </c>
       <c r="J16">
-        <v>1.000547447310705</v>
+        <v>1.0186598</v>
       </c>
       <c r="K16">
-        <v>0.9934552935279907</v>
+        <v>1.5239555</v>
       </c>
       <c r="L16">
-        <v>1.003054716196678</v>
+        <v>1.3384376</v>
       </c>
       <c r="M16">
-        <v>1.001801081753691</v>
+        <v>0.66982164465</v>
       </c>
       <c r="N16">
-        <v>1.001801081753691</v>
+        <v>0.66982164465</v>
       </c>
       <c r="O16">
-        <v>1.001205540235877</v>
+        <v>0.4551901741</v>
       </c>
       <c r="P16">
-        <v>0.9990191523451245</v>
+        <v>0.9545329297666667</v>
       </c>
       <c r="Q16">
-        <v>0.9990191523451246</v>
+        <v>0.9545329297666667</v>
       </c>
       <c r="R16">
-        <v>0.9976281876408412</v>
+        <v>1.096888572325</v>
       </c>
       <c r="S16">
-        <v>0.9976281876408412</v>
+        <v>1.096888572325</v>
       </c>
       <c r="T16">
-        <v>1.000364501396781</v>
+        <v>1.379061953716667</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1512,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.008366134383959</v>
+        <v>1.024491</v>
       </c>
       <c r="D17">
-        <v>1.001563704069303</v>
+        <v>1.2568735</v>
       </c>
       <c r="E17">
-        <v>0.9963540467058953</v>
+        <v>1.4324875</v>
       </c>
       <c r="F17">
-        <v>1.008366134383959</v>
+        <v>1.2568735</v>
       </c>
       <c r="G17">
-        <v>0.9957487340508334</v>
+        <v>1.4324875</v>
       </c>
       <c r="H17">
-        <v>0.9994552097983418</v>
+        <v>2.6103613</v>
       </c>
       <c r="I17">
-        <v>0.9995709910448529</v>
+        <v>0.43426924</v>
       </c>
       <c r="J17">
-        <v>1.001563704069303</v>
+        <v>0.8969114500000001</v>
       </c>
       <c r="K17">
-        <v>1.008366134383959</v>
+        <v>1.4324875</v>
       </c>
       <c r="L17">
-        <v>0.9963540467058953</v>
+        <v>1.024491</v>
       </c>
       <c r="M17">
-        <v>0.9989588753875991</v>
+        <v>1.14068225</v>
       </c>
       <c r="N17">
-        <v>0.9989588753875991</v>
+        <v>1.14068225</v>
       </c>
       <c r="O17">
-        <v>0.99912432019118</v>
+        <v>0.9052112466666666</v>
       </c>
       <c r="P17">
-        <v>1.002094628386386</v>
+        <v>1.237950666666667</v>
       </c>
       <c r="Q17">
-        <v>1.002094628386386</v>
+        <v>1.237950666666667</v>
       </c>
       <c r="R17">
-        <v>1.003662504885779</v>
+        <v>1.286584875</v>
       </c>
       <c r="S17">
-        <v>1.003662504885779</v>
+        <v>1.286584875</v>
       </c>
       <c r="T17">
-        <v>1.000176470008864</v>
+        <v>1.275898998333333</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1574,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.003791802394072</v>
+        <v>0.8538677693561645</v>
       </c>
       <c r="D18">
-        <v>0.9938723881077173</v>
+        <v>0.9332815789482192</v>
       </c>
       <c r="E18">
-        <v>1.004935907958623</v>
+        <v>1.670462587561643</v>
       </c>
       <c r="F18">
-        <v>1.003791802394072</v>
+        <v>0.9332815789482192</v>
       </c>
       <c r="G18">
-        <v>1.009178850053639</v>
+        <v>1.670462587561643</v>
       </c>
       <c r="H18">
-        <v>0.9994038467739389</v>
+        <v>0.5516401080452055</v>
       </c>
       <c r="I18">
-        <v>0.9977174400839749</v>
+        <v>1.008447953917808</v>
       </c>
       <c r="J18">
-        <v>0.9938723881077173</v>
+        <v>0.9500777921917809</v>
       </c>
       <c r="K18">
-        <v>1.003791802394072</v>
+        <v>1.670462587561643</v>
       </c>
       <c r="L18">
-        <v>1.004935907958623</v>
+        <v>0.8538677693561645</v>
       </c>
       <c r="M18">
-        <v>0.9994041480331703</v>
+        <v>0.8935746741521918</v>
       </c>
       <c r="N18">
-        <v>0.9994041480331703</v>
+        <v>0.8935746741521918</v>
       </c>
       <c r="O18">
-        <v>0.9994040476134266</v>
+        <v>0.9318657674073973</v>
       </c>
       <c r="P18">
-        <v>1.000866699486804</v>
+        <v>1.152537311955342</v>
       </c>
       <c r="Q18">
-        <v>1.000866699486804</v>
+        <v>1.152537311955342</v>
       </c>
       <c r="R18">
-        <v>1.001597975213621</v>
+        <v>1.282018630856918</v>
       </c>
       <c r="S18">
-        <v>1.001597975213621</v>
+        <v>1.282018630856918</v>
       </c>
       <c r="T18">
-        <v>1.001483372561994</v>
+        <v>0.994629631670137</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,58 +1636,678 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9495585098975111</v>
+        <v>1.179244668421053</v>
       </c>
       <c r="D19">
-        <v>0.9971050077671598</v>
+        <v>1.794860318363158</v>
       </c>
       <c r="E19">
-        <v>1.022626762243706</v>
+        <v>0.9047664444210525</v>
       </c>
       <c r="F19">
-        <v>0.9495585098975111</v>
+        <v>1.794860318363158</v>
       </c>
       <c r="G19">
-        <v>1.023269698706081</v>
+        <v>0.9047664444210525</v>
       </c>
       <c r="H19">
-        <v>1.001910314625178</v>
+        <v>2.761211605263158</v>
       </c>
       <c r="I19">
-        <v>1.004488788656324</v>
+        <v>0.5695333412105263</v>
       </c>
       <c r="J19">
-        <v>0.9971050077671598</v>
+        <v>0.8302895278947368</v>
       </c>
       <c r="K19">
-        <v>0.9495585098975111</v>
+        <v>0.9047664444210525</v>
       </c>
       <c r="L19">
-        <v>1.022626762243706</v>
+        <v>1.179244668421053</v>
       </c>
       <c r="M19">
-        <v>1.009865885005433</v>
+        <v>1.487052493392105</v>
       </c>
       <c r="N19">
-        <v>1.009865885005433</v>
+        <v>1.487052493392105</v>
       </c>
       <c r="O19">
-        <v>1.007214028212015</v>
+        <v>1.181212775998246</v>
       </c>
       <c r="P19">
-        <v>0.9897634266361256</v>
+        <v>1.292957143735088</v>
       </c>
       <c r="Q19">
-        <v>0.9897634266361256</v>
+        <v>1.292957143735088</v>
       </c>
       <c r="R19">
-        <v>0.979712197451472</v>
+        <v>1.195909468906579</v>
       </c>
       <c r="S19">
-        <v>0.979712197451472</v>
+        <v>1.195909468906579</v>
       </c>
       <c r="T19">
-        <v>0.9998265136493268</v>
+        <v>1.339984317595614</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.076748395157895</v>
+      </c>
+      <c r="D20">
+        <v>0.4311448356852634</v>
+      </c>
+      <c r="E20">
+        <v>1.802887933</v>
+      </c>
+      <c r="F20">
+        <v>0.4311448356852634</v>
+      </c>
+      <c r="G20">
+        <v>1.802887933</v>
+      </c>
+      <c r="H20">
+        <v>1.213289674026316</v>
+      </c>
+      <c r="I20">
+        <v>0.4965446607368421</v>
+      </c>
+      <c r="J20">
+        <v>1.15915974</v>
+      </c>
+      <c r="K20">
+        <v>1.802887933</v>
+      </c>
+      <c r="L20">
+        <v>1.076748395157895</v>
+      </c>
+      <c r="M20">
+        <v>0.7539466154215791</v>
+      </c>
+      <c r="N20">
+        <v>0.7539466154215791</v>
+      </c>
+      <c r="O20">
+        <v>0.6681459638600001</v>
+      </c>
+      <c r="P20">
+        <v>1.103593721281053</v>
+      </c>
+      <c r="Q20">
+        <v>1.103593721281053</v>
+      </c>
+      <c r="R20">
+        <v>1.27841727421079</v>
+      </c>
+      <c r="S20">
+        <v>1.27841727421079</v>
+      </c>
+      <c r="T20">
+        <v>1.029962539767719</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9742458777296152</v>
+      </c>
+      <c r="D21">
+        <v>1.737560417288984</v>
+      </c>
+      <c r="E21">
+        <v>0.6255072321765257</v>
+      </c>
+      <c r="F21">
+        <v>1.737560417288984</v>
+      </c>
+      <c r="G21">
+        <v>0.6255072321765257</v>
+      </c>
+      <c r="H21">
+        <v>1.314279643418631</v>
+      </c>
+      <c r="I21">
+        <v>1.148330836567969</v>
+      </c>
+      <c r="J21">
+        <v>0.9081754660064649</v>
+      </c>
+      <c r="K21">
+        <v>0.6255072321765257</v>
+      </c>
+      <c r="L21">
+        <v>0.9742458777296152</v>
+      </c>
+      <c r="M21">
+        <v>1.3559031475093</v>
+      </c>
+      <c r="N21">
+        <v>1.3559031475093</v>
+      </c>
+      <c r="O21">
+        <v>1.286712377195523</v>
+      </c>
+      <c r="P21">
+        <v>1.112437842398375</v>
+      </c>
+      <c r="Q21">
+        <v>1.112437842398375</v>
+      </c>
+      <c r="R21">
+        <v>0.9907051898429127</v>
+      </c>
+      <c r="S21">
+        <v>0.9907051898429127</v>
+      </c>
+      <c r="T21">
+        <v>1.118016578864698</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.016310253986152</v>
+      </c>
+      <c r="D22">
+        <v>0.6323739763359562</v>
+      </c>
+      <c r="E22">
+        <v>0.97840586922342</v>
+      </c>
+      <c r="F22">
+        <v>0.6323739763359562</v>
+      </c>
+      <c r="G22">
+        <v>0.97840586922342</v>
+      </c>
+      <c r="H22">
+        <v>0.7473766971540057</v>
+      </c>
+      <c r="I22">
+        <v>1.070986411344868</v>
+      </c>
+      <c r="J22">
+        <v>1.00175823847852</v>
+      </c>
+      <c r="K22">
+        <v>0.97840586922342</v>
+      </c>
+      <c r="L22">
+        <v>1.016310253986152</v>
+      </c>
+      <c r="M22">
+        <v>0.8243421151610543</v>
+      </c>
+      <c r="N22">
+        <v>0.8243421151610543</v>
+      </c>
+      <c r="O22">
+        <v>0.9065568805556588</v>
+      </c>
+      <c r="P22">
+        <v>0.8756966998485095</v>
+      </c>
+      <c r="Q22">
+        <v>0.8756966998485095</v>
+      </c>
+      <c r="R22">
+        <v>0.9013739921922371</v>
+      </c>
+      <c r="S22">
+        <v>0.9013739921922371</v>
+      </c>
+      <c r="T22">
+        <v>0.9078685744204869</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.9058000676625266</v>
+      </c>
+      <c r="D23">
+        <v>0.5242975229237483</v>
+      </c>
+      <c r="E23">
+        <v>1.367451572519013</v>
+      </c>
+      <c r="F23">
+        <v>0.5242975229237483</v>
+      </c>
+      <c r="G23">
+        <v>1.367451572519013</v>
+      </c>
+      <c r="H23">
+        <v>0.2955190547006418</v>
+      </c>
+      <c r="I23">
+        <v>1.10415844838367</v>
+      </c>
+      <c r="J23">
+        <v>1.047797231911656</v>
+      </c>
+      <c r="K23">
+        <v>1.367451572519013</v>
+      </c>
+      <c r="L23">
+        <v>0.9058000676625266</v>
+      </c>
+      <c r="M23">
+        <v>0.7150487952931375</v>
+      </c>
+      <c r="N23">
+        <v>0.7150487952931375</v>
+      </c>
+      <c r="O23">
+        <v>0.8447520129899818</v>
+      </c>
+      <c r="P23">
+        <v>0.9325163877017628</v>
+      </c>
+      <c r="Q23">
+        <v>0.9325163877017628</v>
+      </c>
+      <c r="R23">
+        <v>1.041250183906075</v>
+      </c>
+      <c r="S23">
+        <v>1.041250183906075</v>
+      </c>
+      <c r="T23">
+        <v>0.8741706496835429</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.9559112217430918</v>
+      </c>
+      <c r="D24">
+        <v>1.465386549296405</v>
+      </c>
+      <c r="E24">
+        <v>0.9135524736007585</v>
+      </c>
+      <c r="F24">
+        <v>1.465386549296405</v>
+      </c>
+      <c r="G24">
+        <v>0.9135524736007585</v>
+      </c>
+      <c r="H24">
+        <v>1.291586212764821</v>
+      </c>
+      <c r="I24">
+        <v>0.9487592721989307</v>
+      </c>
+      <c r="J24">
+        <v>0.9498782134979767</v>
+      </c>
+      <c r="K24">
+        <v>0.9135524736007585</v>
+      </c>
+      <c r="L24">
+        <v>0.9559112217430918</v>
+      </c>
+      <c r="M24">
+        <v>1.210648885519749</v>
+      </c>
+      <c r="N24">
+        <v>1.210648885519749</v>
+      </c>
+      <c r="O24">
+        <v>1.123352347746143</v>
+      </c>
+      <c r="P24">
+        <v>1.111616748213419</v>
+      </c>
+      <c r="Q24">
+        <v>1.111616748213419</v>
+      </c>
+      <c r="R24">
+        <v>1.062100679560254</v>
+      </c>
+      <c r="S24">
+        <v>1.062100679560254</v>
+      </c>
+      <c r="T24">
+        <v>1.087512323850331</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.8405547783016963</v>
+      </c>
+      <c r="D25">
+        <v>0.1088957392715915</v>
+      </c>
+      <c r="E25">
+        <v>1.896302628246081</v>
+      </c>
+      <c r="F25">
+        <v>0.1088957392715915</v>
+      </c>
+      <c r="G25">
+        <v>1.896302628246081</v>
+      </c>
+      <c r="H25">
+        <v>0.6503544993183425</v>
+      </c>
+      <c r="I25">
+        <v>0.6219549594048807</v>
+      </c>
+      <c r="J25">
+        <v>1.196126012635503</v>
+      </c>
+      <c r="K25">
+        <v>1.896302628246081</v>
+      </c>
+      <c r="L25">
+        <v>0.8405547783016963</v>
+      </c>
+      <c r="M25">
+        <v>0.474725258786644</v>
+      </c>
+      <c r="N25">
+        <v>0.474725258786644</v>
+      </c>
+      <c r="O25">
+        <v>0.5238018256593895</v>
+      </c>
+      <c r="P25">
+        <v>0.9485843819397898</v>
+      </c>
+      <c r="Q25">
+        <v>0.9485843819397898</v>
+      </c>
+      <c r="R25">
+        <v>1.185513943516363</v>
+      </c>
+      <c r="S25">
+        <v>1.185513943516363</v>
+      </c>
+      <c r="T25">
+        <v>0.8856981028630159</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1.203407123945149</v>
+      </c>
+      <c r="D26">
+        <v>0.8296857264949997</v>
+      </c>
+      <c r="E26">
+        <v>0.6818601004695597</v>
+      </c>
+      <c r="F26">
+        <v>0.8296857264949997</v>
+      </c>
+      <c r="G26">
+        <v>0.6818601004695597</v>
+      </c>
+      <c r="H26">
+        <v>1.39526791864594</v>
+      </c>
+      <c r="I26">
+        <v>0.9724612161540649</v>
+      </c>
+      <c r="J26">
+        <v>1.019994817470909</v>
+      </c>
+      <c r="K26">
+        <v>0.6818601004695597</v>
+      </c>
+      <c r="L26">
+        <v>1.203407123945149</v>
+      </c>
+      <c r="M26">
+        <v>1.016546425220074</v>
+      </c>
+      <c r="N26">
+        <v>1.016546425220074</v>
+      </c>
+      <c r="O26">
+        <v>1.001851355531404</v>
+      </c>
+      <c r="P26">
+        <v>0.9049843169699027</v>
+      </c>
+      <c r="Q26">
+        <v>0.9049843169699027</v>
+      </c>
+      <c r="R26">
+        <v>0.849203262844817</v>
+      </c>
+      <c r="S26">
+        <v>0.849203262844817</v>
+      </c>
+      <c r="T26">
+        <v>1.01711281719677</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.9177500468493143</v>
+      </c>
+      <c r="D27">
+        <v>1.409715918007165</v>
+      </c>
+      <c r="E27">
+        <v>1.143546428659886</v>
+      </c>
+      <c r="F27">
+        <v>1.409715918007165</v>
+      </c>
+      <c r="G27">
+        <v>1.143546428659886</v>
+      </c>
+      <c r="H27">
+        <v>1.015749339205395</v>
+      </c>
+      <c r="I27">
+        <v>0.9275763280076923</v>
+      </c>
+      <c r="J27">
+        <v>0.98196166031819</v>
+      </c>
+      <c r="K27">
+        <v>1.143546428659886</v>
+      </c>
+      <c r="L27">
+        <v>0.9177500468493143</v>
+      </c>
+      <c r="M27">
+        <v>1.16373298242824</v>
+      </c>
+      <c r="N27">
+        <v>1.16373298242824</v>
+      </c>
+      <c r="O27">
+        <v>1.08501409762139</v>
+      </c>
+      <c r="P27">
+        <v>1.157004131172122</v>
+      </c>
+      <c r="Q27">
+        <v>1.157004131172122</v>
+      </c>
+      <c r="R27">
+        <v>1.153639705544063</v>
+      </c>
+      <c r="S27">
+        <v>1.153639705544063</v>
+      </c>
+      <c r="T27">
+        <v>1.066049953507941</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.098167157070339</v>
+      </c>
+      <c r="D28">
+        <v>0.9936584760466447</v>
+      </c>
+      <c r="E28">
+        <v>0.9894970251705862</v>
+      </c>
+      <c r="F28">
+        <v>0.9936584760466447</v>
+      </c>
+      <c r="G28">
+        <v>0.9894970251705862</v>
+      </c>
+      <c r="H28">
+        <v>1.014063042496345</v>
+      </c>
+      <c r="I28">
+        <v>0.892780192585208</v>
+      </c>
+      <c r="J28">
+        <v>1.068903282138978</v>
+      </c>
+      <c r="K28">
+        <v>0.9894970251705862</v>
+      </c>
+      <c r="L28">
+        <v>1.098167157070339</v>
+      </c>
+      <c r="M28">
+        <v>1.045912816558492</v>
+      </c>
+      <c r="N28">
+        <v>1.045912816558492</v>
+      </c>
+      <c r="O28">
+        <v>0.9948686085673972</v>
+      </c>
+      <c r="P28">
+        <v>1.027107552762523</v>
+      </c>
+      <c r="Q28">
+        <v>1.027107552762523</v>
+      </c>
+      <c r="R28">
+        <v>1.017704920864539</v>
+      </c>
+      <c r="S28">
+        <v>1.017704920864539</v>
+      </c>
+      <c r="T28">
+        <v>1.00951152925135</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.8776866454437635</v>
+      </c>
+      <c r="D29">
+        <v>1.243602794392062</v>
+      </c>
+      <c r="E29">
+        <v>1.430949079741088</v>
+      </c>
+      <c r="F29">
+        <v>1.243602794392062</v>
+      </c>
+      <c r="G29">
+        <v>1.430949079741088</v>
+      </c>
+      <c r="H29">
+        <v>1.11966703230028</v>
+      </c>
+      <c r="I29">
+        <v>0.8539096414923616</v>
+      </c>
+      <c r="J29">
+        <v>0.9929021851030069</v>
+      </c>
+      <c r="K29">
+        <v>1.430949079741088</v>
+      </c>
+      <c r="L29">
+        <v>0.8776866454437635</v>
+      </c>
+      <c r="M29">
+        <v>1.060644719917913</v>
+      </c>
+      <c r="N29">
+        <v>1.060644719917913</v>
+      </c>
+      <c r="O29">
+        <v>0.9917330271093957</v>
+      </c>
+      <c r="P29">
+        <v>1.184079506525638</v>
+      </c>
+      <c r="Q29">
+        <v>1.184079506525638</v>
+      </c>
+      <c r="R29">
+        <v>1.2457968998295</v>
+      </c>
+      <c r="S29">
+        <v>1.2457968998295</v>
+      </c>
+      <c r="T29">
+        <v>1.086452896412093</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/AlphaFiberF-HW10.xlsx
+++ b/JupyterNotebooks/AvgHW/AlphaFiberF-HW10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -509,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,58 +588,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -706,58 +712,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.066070180064562</v>
+        <v>1.045371384473902</v>
       </c>
       <c r="D4">
-        <v>0.8425410956059464</v>
+        <v>1.183026994165351</v>
       </c>
       <c r="E4">
-        <v>1.025631824476334</v>
+        <v>0.8637814456087102</v>
       </c>
       <c r="F4">
-        <v>0.8425410956059464</v>
+        <v>1.183026994165351</v>
       </c>
       <c r="G4">
-        <v>1.025631824476334</v>
+        <v>0.8637814456087102</v>
       </c>
       <c r="H4">
-        <v>1.345581090192642</v>
+        <v>1.152382054292172</v>
       </c>
       <c r="I4">
-        <v>0.8536708593817769</v>
+        <v>1.008881446077629</v>
       </c>
       <c r="J4">
-        <v>1.036814510255178</v>
+        <v>0.9727652774681128</v>
       </c>
       <c r="K4">
-        <v>1.025631824476334</v>
+        <v>0.8637814456087102</v>
       </c>
       <c r="L4">
-        <v>1.066070180064562</v>
+        <v>1.045371384473902</v>
       </c>
       <c r="M4">
-        <v>0.9543056378352541</v>
+        <v>1.114199189319627</v>
       </c>
       <c r="N4">
-        <v>0.9543056378352541</v>
+        <v>1.114199189319627</v>
       </c>
       <c r="O4">
-        <v>0.9207607116840951</v>
+        <v>1.079093274905627</v>
       </c>
       <c r="P4">
-        <v>0.9780810333822809</v>
+        <v>1.030726608082654</v>
       </c>
       <c r="Q4">
-        <v>0.978081033382281</v>
+        <v>1.030726608082654</v>
       </c>
       <c r="R4">
-        <v>0.9899687311557944</v>
+        <v>0.9889903174641684</v>
       </c>
       <c r="S4">
-        <v>0.9899687311557944</v>
+        <v>0.9889903174641684</v>
       </c>
       <c r="T4">
-        <v>1.02838492666274</v>
+        <v>1.03770143368098</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -768,58 +774,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.050230368360231</v>
+        <v>1.069598930381316</v>
       </c>
       <c r="D5">
-        <v>1.207067306072318</v>
+        <v>0.2458146743108857</v>
       </c>
       <c r="E5">
-        <v>0.8894085226217588</v>
+        <v>1.801357195120993</v>
       </c>
       <c r="F5">
-        <v>1.207067306072318</v>
+        <v>0.2458146743108857</v>
       </c>
       <c r="G5">
-        <v>0.8894085226217588</v>
+        <v>1.801357195120993</v>
       </c>
       <c r="H5">
-        <v>1.176062099459868</v>
+        <v>1.126489434276462</v>
       </c>
       <c r="I5">
-        <v>0.9935203840100914</v>
+        <v>0.478761888460251</v>
       </c>
       <c r="J5">
-        <v>0.967996282046111</v>
+        <v>1.207742982447128</v>
       </c>
       <c r="K5">
-        <v>0.8894085226217588</v>
+        <v>1.801357195120993</v>
       </c>
       <c r="L5">
-        <v>1.050230368360231</v>
+        <v>1.069598930381316</v>
       </c>
       <c r="M5">
-        <v>1.128648837216275</v>
+        <v>0.657706802346101</v>
       </c>
       <c r="N5">
-        <v>1.128648837216275</v>
+        <v>0.657706802346101</v>
       </c>
       <c r="O5">
-        <v>1.08360601948088</v>
+        <v>0.5980584977174844</v>
       </c>
       <c r="P5">
-        <v>1.048902065684769</v>
+        <v>1.038923599937732</v>
       </c>
       <c r="Q5">
-        <v>1.048902065684769</v>
+        <v>1.038923599937731</v>
       </c>
       <c r="R5">
-        <v>1.009028679919017</v>
+        <v>1.229531998733547</v>
       </c>
       <c r="S5">
-        <v>1.009028679919017</v>
+        <v>1.229531998733547</v>
       </c>
       <c r="T5">
-        <v>1.047380827095063</v>
+        <v>0.9882941841661724</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -830,58 +836,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.298190127785517</v>
+        <v>1.066070180064562</v>
       </c>
       <c r="D6">
-        <v>2.103170085973516</v>
+        <v>0.8425410956059464</v>
       </c>
       <c r="E6">
-        <v>0.4469271811709307</v>
+        <v>1.025631824476334</v>
       </c>
       <c r="F6">
-        <v>2.103170085973516</v>
+        <v>0.8425410956059464</v>
       </c>
       <c r="G6">
-        <v>0.4469271811709307</v>
+        <v>1.025631824476334</v>
       </c>
       <c r="H6">
-        <v>1.987010801934406</v>
+        <v>1.345581090192642</v>
       </c>
       <c r="I6">
-        <v>0.8978757699621841</v>
+        <v>0.8536708593817769</v>
       </c>
       <c r="J6">
-        <v>0.8338973395450804</v>
+        <v>1.036814510255178</v>
       </c>
       <c r="K6">
-        <v>0.4469271811709307</v>
+        <v>1.025631824476334</v>
       </c>
       <c r="L6">
-        <v>1.298190127785517</v>
+        <v>1.066070180064562</v>
       </c>
       <c r="M6">
-        <v>1.700680106879517</v>
+        <v>0.9543056378352541</v>
       </c>
       <c r="N6">
-        <v>1.700680106879517</v>
+        <v>0.9543056378352541</v>
       </c>
       <c r="O6">
-        <v>1.433078661240406</v>
+        <v>0.9207607116840951</v>
       </c>
       <c r="P6">
-        <v>1.282762464976655</v>
+        <v>0.9780810333822809</v>
       </c>
       <c r="Q6">
-        <v>1.282762464976655</v>
+        <v>0.978081033382281</v>
       </c>
       <c r="R6">
-        <v>1.073803644025224</v>
+        <v>0.9899687311557944</v>
       </c>
       <c r="S6">
-        <v>1.073803644025224</v>
+        <v>0.9899687311557944</v>
       </c>
       <c r="T6">
-        <v>1.261178551061939</v>
+        <v>1.02838492666274</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -892,58 +898,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9927723640004079</v>
+        <v>1.050230368360231</v>
       </c>
       <c r="D7">
-        <v>0.9944345519947597</v>
+        <v>1.207067306072318</v>
       </c>
       <c r="E7">
-        <v>1.029355667744329</v>
+        <v>0.8894085226217588</v>
       </c>
       <c r="F7">
-        <v>0.9944345519947597</v>
+        <v>1.207067306072318</v>
       </c>
       <c r="G7">
-        <v>1.029355667744329</v>
+        <v>0.8894085226217588</v>
       </c>
       <c r="H7">
-        <v>0.9778936823666901</v>
+        <v>1.176062099459868</v>
       </c>
       <c r="I7">
-        <v>0.9994331717139843</v>
+        <v>0.9935203840100914</v>
       </c>
       <c r="J7">
-        <v>0.9992644470176714</v>
+        <v>0.967996282046111</v>
       </c>
       <c r="K7">
-        <v>1.029355667744329</v>
+        <v>0.8894085226217588</v>
       </c>
       <c r="L7">
-        <v>0.9927723640004079</v>
+        <v>1.050230368360231</v>
       </c>
       <c r="M7">
-        <v>0.9936034579975839</v>
+        <v>1.128648837216275</v>
       </c>
       <c r="N7">
-        <v>0.9936034579975839</v>
+        <v>1.128648837216275</v>
       </c>
       <c r="O7">
-        <v>0.9955466959030507</v>
+        <v>1.08360601948088</v>
       </c>
       <c r="P7">
-        <v>1.005520861246499</v>
+        <v>1.048902065684769</v>
       </c>
       <c r="Q7">
-        <v>1.005520861246499</v>
+        <v>1.048902065684769</v>
       </c>
       <c r="R7">
-        <v>1.011479562870957</v>
+        <v>1.009028679919017</v>
       </c>
       <c r="S7">
-        <v>1.011479562870957</v>
+        <v>1.009028679919017</v>
       </c>
       <c r="T7">
-        <v>0.9988589808063071</v>
+        <v>1.047380827095063</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -954,58 +960,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9963540467058953</v>
+        <v>1.298190127785517</v>
       </c>
       <c r="D8">
-        <v>1.001563704069303</v>
+        <v>2.103170085973516</v>
       </c>
       <c r="E8">
-        <v>1.008366134383959</v>
+        <v>0.4469271811709307</v>
       </c>
       <c r="F8">
-        <v>1.001563704069303</v>
+        <v>2.103170085973516</v>
       </c>
       <c r="G8">
-        <v>1.008366134383959</v>
+        <v>0.4469271811709307</v>
       </c>
       <c r="H8">
-        <v>0.9957487340508335</v>
+        <v>1.987010801934406</v>
       </c>
       <c r="I8">
-        <v>0.9994552097983425</v>
+        <v>0.8978757699621841</v>
       </c>
       <c r="J8">
-        <v>0.9995709910448528</v>
+        <v>0.8338973395450804</v>
       </c>
       <c r="K8">
-        <v>1.008366134383959</v>
+        <v>0.4469271811709307</v>
       </c>
       <c r="L8">
-        <v>0.9963540467058953</v>
+        <v>1.298190127785517</v>
       </c>
       <c r="M8">
-        <v>0.9989588753875992</v>
+        <v>1.700680106879517</v>
       </c>
       <c r="N8">
-        <v>0.9989588753875992</v>
+        <v>1.700680106879517</v>
       </c>
       <c r="O8">
-        <v>0.9991243201911804</v>
+        <v>1.433078661240406</v>
       </c>
       <c r="P8">
-        <v>1.002094628386386</v>
+        <v>1.282762464976655</v>
       </c>
       <c r="Q8">
-        <v>1.002094628386386</v>
+        <v>1.282762464976655</v>
       </c>
       <c r="R8">
-        <v>1.003662504885779</v>
+        <v>1.073803644025224</v>
       </c>
       <c r="S8">
-        <v>1.003662504885779</v>
+        <v>1.073803644025224</v>
       </c>
       <c r="T8">
-        <v>1.000176470008864</v>
+        <v>1.261178551061939</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1016,58 +1022,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9896331371669096</v>
+        <v>0.9927723640004079</v>
       </c>
       <c r="D9">
-        <v>0.9976974056591632</v>
+        <v>0.9944345519947597</v>
       </c>
       <c r="E9">
-        <v>1.049340798865434</v>
+        <v>1.029355667744329</v>
       </c>
       <c r="F9">
-        <v>0.9976974056591632</v>
+        <v>0.9944345519947597</v>
       </c>
       <c r="G9">
-        <v>1.049340798865434</v>
+        <v>1.029355667744329</v>
       </c>
       <c r="H9">
-        <v>0.9684263341830096</v>
+        <v>0.9778936823666901</v>
       </c>
       <c r="I9">
-        <v>1.00073550742747</v>
+        <v>0.9994331717139843</v>
       </c>
       <c r="J9">
-        <v>0.9952914626482522</v>
+        <v>0.9992644470176714</v>
       </c>
       <c r="K9">
-        <v>1.049340798865434</v>
+        <v>1.029355667744329</v>
       </c>
       <c r="L9">
-        <v>0.9896331371669096</v>
+        <v>0.9927723640004079</v>
       </c>
       <c r="M9">
-        <v>0.9936652714130364</v>
+        <v>0.9936034579975839</v>
       </c>
       <c r="N9">
-        <v>0.9936652714130364</v>
+        <v>0.9936034579975839</v>
       </c>
       <c r="O9">
-        <v>0.9960220167511812</v>
+        <v>0.9955466959030507</v>
       </c>
       <c r="P9">
-        <v>1.012223780563836</v>
+        <v>1.005520861246499</v>
       </c>
       <c r="Q9">
-        <v>1.012223780563835</v>
+        <v>1.005520861246499</v>
       </c>
       <c r="R9">
-        <v>1.021503035139235</v>
+        <v>1.011479562870957</v>
       </c>
       <c r="S9">
-        <v>1.021503035139235</v>
+        <v>1.011479562870957</v>
       </c>
       <c r="T9">
-        <v>1.000187440991706</v>
+        <v>0.9988589808063071</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1078,58 +1084,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.304001310975977</v>
+        <v>0.9963540467058953</v>
       </c>
       <c r="D10">
-        <v>2.134789069373484</v>
+        <v>1.001563704069303</v>
       </c>
       <c r="E10">
-        <v>0.4299722257973211</v>
+        <v>1.008366134383959</v>
       </c>
       <c r="F10">
-        <v>2.134789069373484</v>
+        <v>1.001563704069303</v>
       </c>
       <c r="G10">
-        <v>0.4299722257973211</v>
+        <v>1.008366134383959</v>
       </c>
       <c r="H10">
-        <v>2.01934312333908</v>
+        <v>0.9957487340508335</v>
       </c>
       <c r="I10">
-        <v>0.8947856385011765</v>
+        <v>0.9994552097983425</v>
       </c>
       <c r="J10">
-        <v>0.8297279838658951</v>
+        <v>0.9995709910448528</v>
       </c>
       <c r="K10">
-        <v>0.4299722257973211</v>
+        <v>1.008366134383959</v>
       </c>
       <c r="L10">
-        <v>1.304001310975977</v>
+        <v>0.9963540467058953</v>
       </c>
       <c r="M10">
-        <v>1.719395190174731</v>
+        <v>0.9989588753875992</v>
       </c>
       <c r="N10">
-        <v>1.719395190174731</v>
+        <v>0.9989588753875992</v>
       </c>
       <c r="O10">
-        <v>1.444525339616879</v>
+        <v>0.9991243201911804</v>
       </c>
       <c r="P10">
-        <v>1.289587535382261</v>
+        <v>1.002094628386386</v>
       </c>
       <c r="Q10">
-        <v>1.289587535382261</v>
+        <v>1.002094628386386</v>
       </c>
       <c r="R10">
-        <v>1.074683707986026</v>
+        <v>1.003662504885779</v>
       </c>
       <c r="S10">
-        <v>1.074683707986026</v>
+        <v>1.003662504885779</v>
       </c>
       <c r="T10">
-        <v>1.268769891975489</v>
+        <v>1.000176470008864</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1140,58 +1146,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.055810257182046</v>
+        <v>0.9896331371669096</v>
       </c>
       <c r="D11">
-        <v>0.7987163191398667</v>
+        <v>0.9976974056591632</v>
       </c>
       <c r="E11">
-        <v>1.068514884509925</v>
+        <v>1.049340798865434</v>
       </c>
       <c r="F11">
-        <v>0.7987163191398667</v>
+        <v>0.9976974056591632</v>
       </c>
       <c r="G11">
-        <v>1.068514884509925</v>
+        <v>1.049340798865434</v>
       </c>
       <c r="H11">
-        <v>1.125044502374012</v>
+        <v>0.9684263341830096</v>
       </c>
       <c r="I11">
-        <v>0.8860817884144688</v>
+        <v>1.00073550742747</v>
       </c>
       <c r="J11">
-        <v>1.04901445405644</v>
+        <v>0.9952914626482522</v>
       </c>
       <c r="K11">
-        <v>1.068514884509925</v>
+        <v>1.049340798865434</v>
       </c>
       <c r="L11">
-        <v>1.055810257182046</v>
+        <v>0.9896331371669096</v>
       </c>
       <c r="M11">
-        <v>0.9272632881609563</v>
+        <v>0.9936652714130364</v>
       </c>
       <c r="N11">
-        <v>0.9272632881609563</v>
+        <v>0.9936652714130364</v>
       </c>
       <c r="O11">
-        <v>0.9135361215787938</v>
+        <v>0.9960220167511812</v>
       </c>
       <c r="P11">
-        <v>0.9743471536106125</v>
+        <v>1.012223780563836</v>
       </c>
       <c r="Q11">
-        <v>0.9743471536106125</v>
+        <v>1.012223780563835</v>
       </c>
       <c r="R11">
-        <v>0.9978890863354406</v>
+        <v>1.021503035139235</v>
       </c>
       <c r="S11">
-        <v>0.9978890863354406</v>
+        <v>1.021503035139235</v>
       </c>
       <c r="T11">
-        <v>0.9971970342794597</v>
+        <v>1.000187440991706</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1202,58 +1208,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.08070678686316</v>
+        <v>1.304001310975977</v>
       </c>
       <c r="D12">
-        <v>1.298115410658103</v>
+        <v>2.134789069373484</v>
       </c>
       <c r="E12">
-        <v>0.8111980739105271</v>
+        <v>0.4299722257973211</v>
       </c>
       <c r="F12">
-        <v>1.298115410658103</v>
+        <v>2.134789069373484</v>
       </c>
       <c r="G12">
-        <v>0.8111980739105271</v>
+        <v>0.4299722257973211</v>
       </c>
       <c r="H12">
-        <v>1.294382579291578</v>
+        <v>2.01934312333908</v>
       </c>
       <c r="I12">
-        <v>0.9836564127894777</v>
+        <v>0.8947856385011765</v>
       </c>
       <c r="J12">
-        <v>0.9558831715263163</v>
+        <v>0.8297279838658951</v>
       </c>
       <c r="K12">
-        <v>0.8111980739105271</v>
+        <v>0.4299722257973211</v>
       </c>
       <c r="L12">
-        <v>1.08070678686316</v>
+        <v>1.304001310975977</v>
       </c>
       <c r="M12">
-        <v>1.189411098760632</v>
+        <v>1.719395190174731</v>
       </c>
       <c r="N12">
-        <v>1.189411098760632</v>
+        <v>1.719395190174731</v>
       </c>
       <c r="O12">
-        <v>1.120826203436914</v>
+        <v>1.444525339616879</v>
       </c>
       <c r="P12">
-        <v>1.063340090477264</v>
+        <v>1.289587535382261</v>
       </c>
       <c r="Q12">
-        <v>1.063340090477263</v>
+        <v>1.289587535382261</v>
       </c>
       <c r="R12">
-        <v>1.00030458633558</v>
+        <v>1.074683707986026</v>
       </c>
       <c r="S12">
-        <v>1.00030458633558</v>
+        <v>1.074683707986026</v>
       </c>
       <c r="T12">
-        <v>1.070657072506527</v>
+        <v>1.268769891975489</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1264,58 +1270,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9836022399625064</v>
+        <v>1.055810257182046</v>
       </c>
       <c r="D13">
-        <v>0.9791229966752392</v>
+        <v>0.7987163191398667</v>
       </c>
       <c r="E13">
-        <v>1.036572726428923</v>
+        <v>1.068514884509925</v>
       </c>
       <c r="F13">
-        <v>0.9791229966752392</v>
+        <v>0.7987163191398667</v>
       </c>
       <c r="G13">
-        <v>1.036572726428923</v>
+        <v>1.068514884509925</v>
       </c>
       <c r="H13">
-        <v>1.013706507361473</v>
+        <v>1.125044502374012</v>
       </c>
       <c r="I13">
-        <v>0.9791322784428291</v>
+        <v>0.8860817884144688</v>
       </c>
       <c r="J13">
-        <v>1.007514897531236</v>
+        <v>1.04901445405644</v>
       </c>
       <c r="K13">
-        <v>1.036572726428923</v>
+        <v>1.068514884509925</v>
       </c>
       <c r="L13">
-        <v>0.9836022399625064</v>
+        <v>1.055810257182046</v>
       </c>
       <c r="M13">
-        <v>0.9813626183188728</v>
+        <v>0.9272632881609563</v>
       </c>
       <c r="N13">
-        <v>0.9813626183188728</v>
+        <v>0.9272632881609563</v>
       </c>
       <c r="O13">
-        <v>0.980619171693525</v>
+        <v>0.9135361215787938</v>
       </c>
       <c r="P13">
-        <v>0.9997659876888895</v>
+        <v>0.9743471536106125</v>
       </c>
       <c r="Q13">
-        <v>0.9997659876888895</v>
+        <v>0.9743471536106125</v>
       </c>
       <c r="R13">
-        <v>1.008967672373898</v>
+        <v>0.9978890863354406</v>
       </c>
       <c r="S13">
-        <v>1.008967672373898</v>
+        <v>0.9978890863354406</v>
       </c>
       <c r="T13">
-        <v>0.9999419410670346</v>
+        <v>0.9971970342794597</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1326,58 +1332,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.5558482</v>
+        <v>1.08070678686316</v>
       </c>
       <c r="D14">
-        <v>3.032666500000003</v>
+        <v>1.298115410658103</v>
       </c>
       <c r="E14">
-        <v>0.012211266</v>
+        <v>0.8111980739105271</v>
       </c>
       <c r="F14">
-        <v>3.032666500000003</v>
+        <v>1.298115410658103</v>
       </c>
       <c r="G14">
-        <v>0.012211266</v>
+        <v>0.8111980739105271</v>
       </c>
       <c r="H14">
-        <v>2.828552900000004</v>
+        <v>1.294382579291578</v>
       </c>
       <c r="I14">
-        <v>0.7899615500000006</v>
+        <v>0.9836564127894777</v>
       </c>
       <c r="J14">
-        <v>0.6944221199999993</v>
+        <v>0.9558831715263163</v>
       </c>
       <c r="K14">
-        <v>0.012211266</v>
+        <v>0.8111980739105271</v>
       </c>
       <c r="L14">
-        <v>1.5558482</v>
+        <v>1.08070678686316</v>
       </c>
       <c r="M14">
-        <v>2.294257350000001</v>
+        <v>1.189411098760632</v>
       </c>
       <c r="N14">
-        <v>2.294257350000001</v>
+        <v>1.189411098760632</v>
       </c>
       <c r="O14">
-        <v>1.792825416666668</v>
+        <v>1.120826203436914</v>
       </c>
       <c r="P14">
-        <v>1.533575322000001</v>
+        <v>1.063340090477264</v>
       </c>
       <c r="Q14">
-        <v>1.533575322000001</v>
+        <v>1.063340090477263</v>
       </c>
       <c r="R14">
-        <v>1.153234308000001</v>
+        <v>1.00030458633558</v>
       </c>
       <c r="S14">
-        <v>1.153234308000001</v>
+        <v>1.00030458633558</v>
       </c>
       <c r="T14">
-        <v>1.485610422666668</v>
+        <v>1.070657072506527</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1388,58 +1394,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.026860481</v>
+        <v>0.9836022399625064</v>
       </c>
       <c r="D15">
-        <v>0.00064866866</v>
+        <v>0.9791229966752392</v>
       </c>
       <c r="E15">
-        <v>7.6546011</v>
+        <v>1.036572726428923</v>
       </c>
       <c r="F15">
-        <v>0.00064866866</v>
+        <v>0.9791229966752392</v>
       </c>
       <c r="G15">
-        <v>7.6546011</v>
+        <v>1.036572726428923</v>
       </c>
       <c r="H15">
-        <v>0.007481255500000001</v>
+        <v>1.013706507361473</v>
       </c>
       <c r="I15">
-        <v>0.05715137000000001</v>
+        <v>0.9791322784428291</v>
       </c>
       <c r="J15">
-        <v>0.60377661</v>
+        <v>1.007514897531236</v>
       </c>
       <c r="K15">
-        <v>7.6546011</v>
+        <v>1.036572726428923</v>
       </c>
       <c r="L15">
-        <v>0.026860481</v>
+        <v>0.9836022399625064</v>
       </c>
       <c r="M15">
-        <v>0.01375457483</v>
+        <v>0.9813626183188728</v>
       </c>
       <c r="N15">
-        <v>0.01375457483</v>
+        <v>0.9813626183188728</v>
       </c>
       <c r="O15">
-        <v>0.02822017322</v>
+        <v>0.980619171693525</v>
       </c>
       <c r="P15">
-        <v>2.560703416553333</v>
+        <v>0.9997659876888895</v>
       </c>
       <c r="Q15">
-        <v>2.560703416553333</v>
+        <v>0.9997659876888895</v>
       </c>
       <c r="R15">
-        <v>3.834177837415</v>
+        <v>1.008967672373898</v>
       </c>
       <c r="S15">
-        <v>3.834177837415</v>
+        <v>1.008967672373898</v>
       </c>
       <c r="T15">
-        <v>1.391753247526667</v>
+        <v>0.9999419410670346</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1450,58 +1456,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.3384376</v>
+        <v>1.5558482</v>
       </c>
       <c r="D16">
-        <v>0.0012056893</v>
+        <v>3.032666500000003</v>
       </c>
       <c r="E16">
-        <v>1.5239555</v>
+        <v>0.012211266</v>
       </c>
       <c r="F16">
-        <v>0.0012056893</v>
+        <v>3.032666500000003</v>
       </c>
       <c r="G16">
-        <v>1.5239555</v>
+        <v>0.012211266</v>
       </c>
       <c r="H16">
-        <v>4.3661859</v>
+        <v>2.828552900000004</v>
       </c>
       <c r="I16">
-        <v>0.025927233</v>
+        <v>0.7899615500000006</v>
       </c>
       <c r="J16">
-        <v>1.0186598</v>
+        <v>0.6944221199999993</v>
       </c>
       <c r="K16">
-        <v>1.5239555</v>
+        <v>0.012211266</v>
       </c>
       <c r="L16">
-        <v>1.3384376</v>
+        <v>1.5558482</v>
       </c>
       <c r="M16">
-        <v>0.66982164465</v>
+        <v>2.294257350000001</v>
       </c>
       <c r="N16">
-        <v>0.66982164465</v>
+        <v>2.294257350000001</v>
       </c>
       <c r="O16">
-        <v>0.4551901741</v>
+        <v>1.792825416666668</v>
       </c>
       <c r="P16">
-        <v>0.9545329297666667</v>
+        <v>1.533575322000001</v>
       </c>
       <c r="Q16">
-        <v>0.9545329297666667</v>
+        <v>1.533575322000001</v>
       </c>
       <c r="R16">
-        <v>1.096888572325</v>
+        <v>1.153234308000001</v>
       </c>
       <c r="S16">
-        <v>1.096888572325</v>
+        <v>1.153234308000001</v>
       </c>
       <c r="T16">
-        <v>1.379061953716667</v>
+        <v>1.485610422666668</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1512,58 +1518,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.024491</v>
+        <v>0.026860481</v>
       </c>
       <c r="D17">
-        <v>1.2568735</v>
+        <v>0.00064866866</v>
       </c>
       <c r="E17">
-        <v>1.4324875</v>
+        <v>7.6546011</v>
       </c>
       <c r="F17">
-        <v>1.2568735</v>
+        <v>0.00064866866</v>
       </c>
       <c r="G17">
-        <v>1.4324875</v>
+        <v>7.6546011</v>
       </c>
       <c r="H17">
-        <v>2.6103613</v>
+        <v>0.007481255500000001</v>
       </c>
       <c r="I17">
-        <v>0.43426924</v>
+        <v>0.05715137000000001</v>
       </c>
       <c r="J17">
-        <v>0.8969114500000001</v>
+        <v>0.60377661</v>
       </c>
       <c r="K17">
-        <v>1.4324875</v>
+        <v>7.6546011</v>
       </c>
       <c r="L17">
-        <v>1.024491</v>
+        <v>0.026860481</v>
       </c>
       <c r="M17">
-        <v>1.14068225</v>
+        <v>0.01375457483</v>
       </c>
       <c r="N17">
-        <v>1.14068225</v>
+        <v>0.01375457483</v>
       </c>
       <c r="O17">
-        <v>0.9052112466666666</v>
+        <v>0.02822017322</v>
       </c>
       <c r="P17">
-        <v>1.237950666666667</v>
+        <v>2.560703416553333</v>
       </c>
       <c r="Q17">
-        <v>1.237950666666667</v>
+        <v>2.560703416553333</v>
       </c>
       <c r="R17">
-        <v>1.286584875</v>
+        <v>3.834177837415</v>
       </c>
       <c r="S17">
-        <v>1.286584875</v>
+        <v>3.834177837415</v>
       </c>
       <c r="T17">
-        <v>1.275898998333333</v>
+        <v>1.391753247526667</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1574,58 +1580,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.8538677693561645</v>
+        <v>1.3384376</v>
       </c>
       <c r="D18">
-        <v>0.9332815789482192</v>
+        <v>0.0012056893</v>
       </c>
       <c r="E18">
-        <v>1.670462587561643</v>
+        <v>1.5239555</v>
       </c>
       <c r="F18">
-        <v>0.9332815789482192</v>
+        <v>0.0012056893</v>
       </c>
       <c r="G18">
-        <v>1.670462587561643</v>
+        <v>1.5239555</v>
       </c>
       <c r="H18">
-        <v>0.5516401080452055</v>
+        <v>4.3661859</v>
       </c>
       <c r="I18">
-        <v>1.008447953917808</v>
+        <v>0.025927233</v>
       </c>
       <c r="J18">
-        <v>0.9500777921917809</v>
+        <v>1.0186598</v>
       </c>
       <c r="K18">
-        <v>1.670462587561643</v>
+        <v>1.5239555</v>
       </c>
       <c r="L18">
-        <v>0.8538677693561645</v>
+        <v>1.3384376</v>
       </c>
       <c r="M18">
-        <v>0.8935746741521918</v>
+        <v>0.66982164465</v>
       </c>
       <c r="N18">
-        <v>0.8935746741521918</v>
+        <v>0.66982164465</v>
       </c>
       <c r="O18">
-        <v>0.9318657674073973</v>
+        <v>0.4551901741</v>
       </c>
       <c r="P18">
-        <v>1.152537311955342</v>
+        <v>0.9545329297666667</v>
       </c>
       <c r="Q18">
-        <v>1.152537311955342</v>
+        <v>0.9545329297666667</v>
       </c>
       <c r="R18">
-        <v>1.282018630856918</v>
+        <v>1.096888572325</v>
       </c>
       <c r="S18">
-        <v>1.282018630856918</v>
+        <v>1.096888572325</v>
       </c>
       <c r="T18">
-        <v>0.994629631670137</v>
+        <v>1.379061953716667</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1636,58 +1642,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.179244668421053</v>
+        <v>1.024491</v>
       </c>
       <c r="D19">
-        <v>1.794860318363158</v>
+        <v>1.2568735</v>
       </c>
       <c r="E19">
-        <v>0.9047664444210525</v>
+        <v>1.4324875</v>
       </c>
       <c r="F19">
-        <v>1.794860318363158</v>
+        <v>1.2568735</v>
       </c>
       <c r="G19">
-        <v>0.9047664444210525</v>
+        <v>1.4324875</v>
       </c>
       <c r="H19">
-        <v>2.761211605263158</v>
+        <v>2.6103613</v>
       </c>
       <c r="I19">
-        <v>0.5695333412105263</v>
+        <v>0.43426924</v>
       </c>
       <c r="J19">
-        <v>0.8302895278947368</v>
+        <v>0.8969114500000001</v>
       </c>
       <c r="K19">
-        <v>0.9047664444210525</v>
+        <v>1.4324875</v>
       </c>
       <c r="L19">
-        <v>1.179244668421053</v>
+        <v>1.024491</v>
       </c>
       <c r="M19">
-        <v>1.487052493392105</v>
+        <v>1.14068225</v>
       </c>
       <c r="N19">
-        <v>1.487052493392105</v>
+        <v>1.14068225</v>
       </c>
       <c r="O19">
-        <v>1.181212775998246</v>
+        <v>0.9052112466666666</v>
       </c>
       <c r="P19">
-        <v>1.292957143735088</v>
+        <v>1.237950666666667</v>
       </c>
       <c r="Q19">
-        <v>1.292957143735088</v>
+        <v>1.237950666666667</v>
       </c>
       <c r="R19">
-        <v>1.195909468906579</v>
+        <v>1.286584875</v>
       </c>
       <c r="S19">
-        <v>1.195909468906579</v>
+        <v>1.286584875</v>
       </c>
       <c r="T19">
-        <v>1.339984317595614</v>
+        <v>1.275898998333333</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1698,58 +1704,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.076748395157895</v>
+        <v>0.8538677693561645</v>
       </c>
       <c r="D20">
-        <v>0.4311448356852634</v>
+        <v>0.9332815789482192</v>
       </c>
       <c r="E20">
-        <v>1.802887933</v>
+        <v>1.670462587561643</v>
       </c>
       <c r="F20">
-        <v>0.4311448356852634</v>
+        <v>0.9332815789482192</v>
       </c>
       <c r="G20">
-        <v>1.802887933</v>
+        <v>1.670462587561643</v>
       </c>
       <c r="H20">
-        <v>1.213289674026316</v>
+        <v>0.5516401080452055</v>
       </c>
       <c r="I20">
-        <v>0.4965446607368421</v>
+        <v>1.008447953917808</v>
       </c>
       <c r="J20">
-        <v>1.15915974</v>
+        <v>0.9500777921917809</v>
       </c>
       <c r="K20">
-        <v>1.802887933</v>
+        <v>1.670462587561643</v>
       </c>
       <c r="L20">
-        <v>1.076748395157895</v>
+        <v>0.8538677693561645</v>
       </c>
       <c r="M20">
-        <v>0.7539466154215791</v>
+        <v>0.8935746741521918</v>
       </c>
       <c r="N20">
-        <v>0.7539466154215791</v>
+        <v>0.8935746741521918</v>
       </c>
       <c r="O20">
-        <v>0.6681459638600001</v>
+        <v>0.9318657674073973</v>
       </c>
       <c r="P20">
-        <v>1.103593721281053</v>
+        <v>1.152537311955342</v>
       </c>
       <c r="Q20">
-        <v>1.103593721281053</v>
+        <v>1.152537311955342</v>
       </c>
       <c r="R20">
-        <v>1.27841727421079</v>
+        <v>1.282018630856918</v>
       </c>
       <c r="S20">
-        <v>1.27841727421079</v>
+        <v>1.282018630856918</v>
       </c>
       <c r="T20">
-        <v>1.029962539767719</v>
+        <v>0.994629631670137</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1760,58 +1766,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9742458777296152</v>
+        <v>1.179244668421053</v>
       </c>
       <c r="D21">
-        <v>1.737560417288984</v>
+        <v>1.794860318363158</v>
       </c>
       <c r="E21">
-        <v>0.6255072321765257</v>
+        <v>0.9047664444210525</v>
       </c>
       <c r="F21">
-        <v>1.737560417288984</v>
+        <v>1.794860318363158</v>
       </c>
       <c r="G21">
-        <v>0.6255072321765257</v>
+        <v>0.9047664444210525</v>
       </c>
       <c r="H21">
-        <v>1.314279643418631</v>
+        <v>2.761211605263158</v>
       </c>
       <c r="I21">
-        <v>1.148330836567969</v>
+        <v>0.5695333412105263</v>
       </c>
       <c r="J21">
-        <v>0.9081754660064649</v>
+        <v>0.8302895278947368</v>
       </c>
       <c r="K21">
-        <v>0.6255072321765257</v>
+        <v>0.9047664444210525</v>
       </c>
       <c r="L21">
-        <v>0.9742458777296152</v>
+        <v>1.179244668421053</v>
       </c>
       <c r="M21">
-        <v>1.3559031475093</v>
+        <v>1.487052493392105</v>
       </c>
       <c r="N21">
-        <v>1.3559031475093</v>
+        <v>1.487052493392105</v>
       </c>
       <c r="O21">
-        <v>1.286712377195523</v>
+        <v>1.181212775998246</v>
       </c>
       <c r="P21">
-        <v>1.112437842398375</v>
+        <v>1.292957143735088</v>
       </c>
       <c r="Q21">
-        <v>1.112437842398375</v>
+        <v>1.292957143735088</v>
       </c>
       <c r="R21">
-        <v>0.9907051898429127</v>
+        <v>1.195909468906579</v>
       </c>
       <c r="S21">
-        <v>0.9907051898429127</v>
+        <v>1.195909468906579</v>
       </c>
       <c r="T21">
-        <v>1.118016578864698</v>
+        <v>1.339984317595614</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1822,58 +1828,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.016310253986152</v>
+        <v>1.076748395157895</v>
       </c>
       <c r="D22">
-        <v>0.6323739763359562</v>
+        <v>0.4311448356852634</v>
       </c>
       <c r="E22">
-        <v>0.97840586922342</v>
+        <v>1.802887933</v>
       </c>
       <c r="F22">
-        <v>0.6323739763359562</v>
+        <v>0.4311448356852634</v>
       </c>
       <c r="G22">
-        <v>0.97840586922342</v>
+        <v>1.802887933</v>
       </c>
       <c r="H22">
-        <v>0.7473766971540057</v>
+        <v>1.213289674026316</v>
       </c>
       <c r="I22">
-        <v>1.070986411344868</v>
+        <v>0.4965446607368421</v>
       </c>
       <c r="J22">
-        <v>1.00175823847852</v>
+        <v>1.15915974</v>
       </c>
       <c r="K22">
-        <v>0.97840586922342</v>
+        <v>1.802887933</v>
       </c>
       <c r="L22">
-        <v>1.016310253986152</v>
+        <v>1.076748395157895</v>
       </c>
       <c r="M22">
-        <v>0.8243421151610543</v>
+        <v>0.7539466154215791</v>
       </c>
       <c r="N22">
-        <v>0.8243421151610543</v>
+        <v>0.7539466154215791</v>
       </c>
       <c r="O22">
-        <v>0.9065568805556588</v>
+        <v>0.6681459638600001</v>
       </c>
       <c r="P22">
-        <v>0.8756966998485095</v>
+        <v>1.103593721281053</v>
       </c>
       <c r="Q22">
-        <v>0.8756966998485095</v>
+        <v>1.103593721281053</v>
       </c>
       <c r="R22">
-        <v>0.9013739921922371</v>
+        <v>1.27841727421079</v>
       </c>
       <c r="S22">
-        <v>0.9013739921922371</v>
+        <v>1.27841727421079</v>
       </c>
       <c r="T22">
-        <v>0.9078685744204869</v>
+        <v>1.029962539767719</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1884,58 +1890,58 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.9058000676625266</v>
+        <v>0.9742458777296152</v>
       </c>
       <c r="D23">
-        <v>0.5242975229237483</v>
+        <v>1.737560417288984</v>
       </c>
       <c r="E23">
-        <v>1.367451572519013</v>
+        <v>0.6255072321765257</v>
       </c>
       <c r="F23">
-        <v>0.5242975229237483</v>
+        <v>1.737560417288984</v>
       </c>
       <c r="G23">
-        <v>1.367451572519013</v>
+        <v>0.6255072321765257</v>
       </c>
       <c r="H23">
-        <v>0.2955190547006418</v>
+        <v>1.314279643418631</v>
       </c>
       <c r="I23">
-        <v>1.10415844838367</v>
+        <v>1.148330836567969</v>
       </c>
       <c r="J23">
-        <v>1.047797231911656</v>
+        <v>0.9081754660064649</v>
       </c>
       <c r="K23">
-        <v>1.367451572519013</v>
+        <v>0.6255072321765257</v>
       </c>
       <c r="L23">
-        <v>0.9058000676625266</v>
+        <v>0.9742458777296152</v>
       </c>
       <c r="M23">
-        <v>0.7150487952931375</v>
+        <v>1.3559031475093</v>
       </c>
       <c r="N23">
-        <v>0.7150487952931375</v>
+        <v>1.3559031475093</v>
       </c>
       <c r="O23">
-        <v>0.8447520129899818</v>
+        <v>1.286712377195523</v>
       </c>
       <c r="P23">
-        <v>0.9325163877017628</v>
+        <v>1.112437842398375</v>
       </c>
       <c r="Q23">
-        <v>0.9325163877017628</v>
+        <v>1.112437842398375</v>
       </c>
       <c r="R23">
-        <v>1.041250183906075</v>
+        <v>0.9907051898429127</v>
       </c>
       <c r="S23">
-        <v>1.041250183906075</v>
+        <v>0.9907051898429127</v>
       </c>
       <c r="T23">
-        <v>0.8741706496835429</v>
+        <v>1.118016578864698</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1946,58 +1952,58 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.9559112217430918</v>
+        <v>1.016310253986152</v>
       </c>
       <c r="D24">
-        <v>1.465386549296405</v>
+        <v>0.6323739763359562</v>
       </c>
       <c r="E24">
-        <v>0.9135524736007585</v>
+        <v>0.97840586922342</v>
       </c>
       <c r="F24">
-        <v>1.465386549296405</v>
+        <v>0.6323739763359562</v>
       </c>
       <c r="G24">
-        <v>0.9135524736007585</v>
+        <v>0.97840586922342</v>
       </c>
       <c r="H24">
-        <v>1.291586212764821</v>
+        <v>0.7473766971540057</v>
       </c>
       <c r="I24">
-        <v>0.9487592721989307</v>
+        <v>1.070986411344868</v>
       </c>
       <c r="J24">
-        <v>0.9498782134979767</v>
+        <v>1.00175823847852</v>
       </c>
       <c r="K24">
-        <v>0.9135524736007585</v>
+        <v>0.97840586922342</v>
       </c>
       <c r="L24">
-        <v>0.9559112217430918</v>
+        <v>1.016310253986152</v>
       </c>
       <c r="M24">
-        <v>1.210648885519749</v>
+        <v>0.8243421151610543</v>
       </c>
       <c r="N24">
-        <v>1.210648885519749</v>
+        <v>0.8243421151610543</v>
       </c>
       <c r="O24">
-        <v>1.123352347746143</v>
+        <v>0.9065568805556588</v>
       </c>
       <c r="P24">
-        <v>1.111616748213419</v>
+        <v>0.8756966998485095</v>
       </c>
       <c r="Q24">
-        <v>1.111616748213419</v>
+        <v>0.8756966998485095</v>
       </c>
       <c r="R24">
-        <v>1.062100679560254</v>
+        <v>0.9013739921922371</v>
       </c>
       <c r="S24">
-        <v>1.062100679560254</v>
+        <v>0.9013739921922371</v>
       </c>
       <c r="T24">
-        <v>1.087512323850331</v>
+        <v>0.9078685744204869</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2008,58 +2014,58 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.8405547783016963</v>
+        <v>0.9058000676625266</v>
       </c>
       <c r="D25">
-        <v>0.1088957392715915</v>
+        <v>0.5242975229237483</v>
       </c>
       <c r="E25">
-        <v>1.896302628246081</v>
+        <v>1.367451572519013</v>
       </c>
       <c r="F25">
-        <v>0.1088957392715915</v>
+        <v>0.5242975229237483</v>
       </c>
       <c r="G25">
-        <v>1.896302628246081</v>
+        <v>1.367451572519013</v>
       </c>
       <c r="H25">
-        <v>0.6503544993183425</v>
+        <v>0.2955190547006418</v>
       </c>
       <c r="I25">
-        <v>0.6219549594048807</v>
+        <v>1.10415844838367</v>
       </c>
       <c r="J25">
-        <v>1.196126012635503</v>
+        <v>1.047797231911656</v>
       </c>
       <c r="K25">
-        <v>1.896302628246081</v>
+        <v>1.367451572519013</v>
       </c>
       <c r="L25">
-        <v>0.8405547783016963</v>
+        <v>0.9058000676625266</v>
       </c>
       <c r="M25">
-        <v>0.474725258786644</v>
+        <v>0.7150487952931375</v>
       </c>
       <c r="N25">
-        <v>0.474725258786644</v>
+        <v>0.7150487952931375</v>
       </c>
       <c r="O25">
-        <v>0.5238018256593895</v>
+        <v>0.8447520129899818</v>
       </c>
       <c r="P25">
-        <v>0.9485843819397898</v>
+        <v>0.9325163877017628</v>
       </c>
       <c r="Q25">
-        <v>0.9485843819397898</v>
+        <v>0.9325163877017628</v>
       </c>
       <c r="R25">
-        <v>1.185513943516363</v>
+        <v>1.041250183906075</v>
       </c>
       <c r="S25">
-        <v>1.185513943516363</v>
+        <v>1.041250183906075</v>
       </c>
       <c r="T25">
-        <v>0.8856981028630159</v>
+        <v>0.8741706496835429</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2070,58 +2076,58 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>1.203407123945149</v>
+        <v>0.9559112217430918</v>
       </c>
       <c r="D26">
-        <v>0.8296857264949997</v>
+        <v>1.465386549296405</v>
       </c>
       <c r="E26">
-        <v>0.6818601004695597</v>
+        <v>0.9135524736007585</v>
       </c>
       <c r="F26">
-        <v>0.8296857264949997</v>
+        <v>1.465386549296405</v>
       </c>
       <c r="G26">
-        <v>0.6818601004695597</v>
+        <v>0.9135524736007585</v>
       </c>
       <c r="H26">
-        <v>1.39526791864594</v>
+        <v>1.291586212764821</v>
       </c>
       <c r="I26">
-        <v>0.9724612161540649</v>
+        <v>0.9487592721989307</v>
       </c>
       <c r="J26">
-        <v>1.019994817470909</v>
+        <v>0.9498782134979767</v>
       </c>
       <c r="K26">
-        <v>0.6818601004695597</v>
+        <v>0.9135524736007585</v>
       </c>
       <c r="L26">
-        <v>1.203407123945149</v>
+        <v>0.9559112217430918</v>
       </c>
       <c r="M26">
-        <v>1.016546425220074</v>
+        <v>1.210648885519749</v>
       </c>
       <c r="N26">
-        <v>1.016546425220074</v>
+        <v>1.210648885519749</v>
       </c>
       <c r="O26">
-        <v>1.001851355531404</v>
+        <v>1.123352347746143</v>
       </c>
       <c r="P26">
-        <v>0.9049843169699027</v>
+        <v>1.111616748213419</v>
       </c>
       <c r="Q26">
-        <v>0.9049843169699027</v>
+        <v>1.111616748213419</v>
       </c>
       <c r="R26">
-        <v>0.849203262844817</v>
+        <v>1.062100679560254</v>
       </c>
       <c r="S26">
-        <v>0.849203262844817</v>
+        <v>1.062100679560254</v>
       </c>
       <c r="T26">
-        <v>1.01711281719677</v>
+        <v>1.087512323850331</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2132,58 +2138,58 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>0.9177500468493143</v>
+        <v>0.8405547783016963</v>
       </c>
       <c r="D27">
-        <v>1.409715918007165</v>
+        <v>0.1088957392715915</v>
       </c>
       <c r="E27">
-        <v>1.143546428659886</v>
+        <v>1.896302628246081</v>
       </c>
       <c r="F27">
-        <v>1.409715918007165</v>
+        <v>0.1088957392715915</v>
       </c>
       <c r="G27">
-        <v>1.143546428659886</v>
+        <v>1.896302628246081</v>
       </c>
       <c r="H27">
-        <v>1.015749339205395</v>
+        <v>0.6503544993183425</v>
       </c>
       <c r="I27">
-        <v>0.9275763280076923</v>
+        <v>0.6219549594048807</v>
       </c>
       <c r="J27">
-        <v>0.98196166031819</v>
+        <v>1.196126012635503</v>
       </c>
       <c r="K27">
-        <v>1.143546428659886</v>
+        <v>1.896302628246081</v>
       </c>
       <c r="L27">
-        <v>0.9177500468493143</v>
+        <v>0.8405547783016963</v>
       </c>
       <c r="M27">
-        <v>1.16373298242824</v>
+        <v>0.474725258786644</v>
       </c>
       <c r="N27">
-        <v>1.16373298242824</v>
+        <v>0.474725258786644</v>
       </c>
       <c r="O27">
-        <v>1.08501409762139</v>
+        <v>0.5238018256593895</v>
       </c>
       <c r="P27">
-        <v>1.157004131172122</v>
+        <v>0.9485843819397898</v>
       </c>
       <c r="Q27">
-        <v>1.157004131172122</v>
+        <v>0.9485843819397898</v>
       </c>
       <c r="R27">
-        <v>1.153639705544063</v>
+        <v>1.185513943516363</v>
       </c>
       <c r="S27">
-        <v>1.153639705544063</v>
+        <v>1.185513943516363</v>
       </c>
       <c r="T27">
-        <v>1.066049953507941</v>
+        <v>0.8856981028630159</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2194,58 +2200,58 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>1.098167157070339</v>
+        <v>1.203407123945149</v>
       </c>
       <c r="D28">
-        <v>0.9936584760466447</v>
+        <v>0.8296857264949997</v>
       </c>
       <c r="E28">
-        <v>0.9894970251705862</v>
+        <v>0.6818601004695597</v>
       </c>
       <c r="F28">
-        <v>0.9936584760466447</v>
+        <v>0.8296857264949997</v>
       </c>
       <c r="G28">
-        <v>0.9894970251705862</v>
+        <v>0.6818601004695597</v>
       </c>
       <c r="H28">
-        <v>1.014063042496345</v>
+        <v>1.39526791864594</v>
       </c>
       <c r="I28">
-        <v>0.892780192585208</v>
+        <v>0.9724612161540649</v>
       </c>
       <c r="J28">
-        <v>1.068903282138978</v>
+        <v>1.019994817470909</v>
       </c>
       <c r="K28">
-        <v>0.9894970251705862</v>
+        <v>0.6818601004695597</v>
       </c>
       <c r="L28">
-        <v>1.098167157070339</v>
+        <v>1.203407123945149</v>
       </c>
       <c r="M28">
-        <v>1.045912816558492</v>
+        <v>1.016546425220074</v>
       </c>
       <c r="N28">
-        <v>1.045912816558492</v>
+        <v>1.016546425220074</v>
       </c>
       <c r="O28">
-        <v>0.9948686085673972</v>
+        <v>1.001851355531404</v>
       </c>
       <c r="P28">
-        <v>1.027107552762523</v>
+        <v>0.9049843169699027</v>
       </c>
       <c r="Q28">
-        <v>1.027107552762523</v>
+        <v>0.9049843169699027</v>
       </c>
       <c r="R28">
-        <v>1.017704920864539</v>
+        <v>0.849203262844817</v>
       </c>
       <c r="S28">
-        <v>1.017704920864539</v>
+        <v>0.849203262844817</v>
       </c>
       <c r="T28">
-        <v>1.00951152925135</v>
+        <v>1.01711281719677</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2256,57 +2262,181 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>0.9177500468493143</v>
+      </c>
+      <c r="D29">
+        <v>1.409715918007165</v>
+      </c>
+      <c r="E29">
+        <v>1.143546428659886</v>
+      </c>
+      <c r="F29">
+        <v>1.409715918007165</v>
+      </c>
+      <c r="G29">
+        <v>1.143546428659886</v>
+      </c>
+      <c r="H29">
+        <v>1.015749339205395</v>
+      </c>
+      <c r="I29">
+        <v>0.9275763280076923</v>
+      </c>
+      <c r="J29">
+        <v>0.98196166031819</v>
+      </c>
+      <c r="K29">
+        <v>1.143546428659886</v>
+      </c>
+      <c r="L29">
+        <v>0.9177500468493143</v>
+      </c>
+      <c r="M29">
+        <v>1.16373298242824</v>
+      </c>
+      <c r="N29">
+        <v>1.16373298242824</v>
+      </c>
+      <c r="O29">
+        <v>1.08501409762139</v>
+      </c>
+      <c r="P29">
+        <v>1.157004131172122</v>
+      </c>
+      <c r="Q29">
+        <v>1.157004131172122</v>
+      </c>
+      <c r="R29">
+        <v>1.153639705544063</v>
+      </c>
+      <c r="S29">
+        <v>1.153639705544063</v>
+      </c>
+      <c r="T29">
+        <v>1.066049953507941</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.098167157070339</v>
+      </c>
+      <c r="D30">
+        <v>0.9936584760466447</v>
+      </c>
+      <c r="E30">
+        <v>0.9894970251705862</v>
+      </c>
+      <c r="F30">
+        <v>0.9936584760466447</v>
+      </c>
+      <c r="G30">
+        <v>0.9894970251705862</v>
+      </c>
+      <c r="H30">
+        <v>1.014063042496345</v>
+      </c>
+      <c r="I30">
+        <v>0.892780192585208</v>
+      </c>
+      <c r="J30">
+        <v>1.068903282138978</v>
+      </c>
+      <c r="K30">
+        <v>0.9894970251705862</v>
+      </c>
+      <c r="L30">
+        <v>1.098167157070339</v>
+      </c>
+      <c r="M30">
+        <v>1.045912816558492</v>
+      </c>
+      <c r="N30">
+        <v>1.045912816558492</v>
+      </c>
+      <c r="O30">
+        <v>0.9948686085673972</v>
+      </c>
+      <c r="P30">
+        <v>1.027107552762523</v>
+      </c>
+      <c r="Q30">
+        <v>1.027107552762523</v>
+      </c>
+      <c r="R30">
+        <v>1.017704920864539</v>
+      </c>
+      <c r="S30">
+        <v>1.017704920864539</v>
+      </c>
+      <c r="T30">
+        <v>1.00951152925135</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>0.8776866454437635</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>1.243602794392062</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>1.430949079741088</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>1.243602794392062</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>1.430949079741088</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>1.11966703230028</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>0.8539096414923616</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>0.9929021851030069</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>1.430949079741088</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>0.8776866454437635</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>1.060644719917913</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>1.060644719917913</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>0.9917330271093957</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>1.184079506525638</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>1.184079506525638</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>1.2457968998295</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>1.2457968998295</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>1.086452896412093</v>
       </c>
     </row>
